--- a/StepData.xlsx
+++ b/StepData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trevor Drees\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\CountingSteps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F1661B-A5FD-46B1-9D61-510F376A808F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F90053F-7C79-493F-9EB7-5BBDACFE6CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{F3AFDF18-1CE2-4C72-BD6C-2152A31A0244}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$2:$C$281</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$281</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$2:$C$325</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$326</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -401,7 +401,7 @@
   <dimension ref="A1:I367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G279" sqref="G279"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3514,6 +3514,9 @@
       <c r="B282">
         <v>7</v>
       </c>
+      <c r="C282">
+        <v>11896</v>
+      </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
@@ -3522,6 +3525,9 @@
       <c r="B283">
         <v>8</v>
       </c>
+      <c r="C283">
+        <v>7467</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
@@ -3530,6 +3536,9 @@
       <c r="B284">
         <v>9</v>
       </c>
+      <c r="C284">
+        <v>6328</v>
+      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
@@ -3538,6 +3547,9 @@
       <c r="B285">
         <v>10</v>
       </c>
+      <c r="C285">
+        <v>12917</v>
+      </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
@@ -3546,6 +3558,9 @@
       <c r="B286">
         <v>11</v>
       </c>
+      <c r="C286">
+        <v>24040</v>
+      </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
@@ -3554,6 +3569,9 @@
       <c r="B287">
         <v>12</v>
       </c>
+      <c r="C287">
+        <v>8265</v>
+      </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
@@ -3562,304 +3580,418 @@
       <c r="B288">
         <v>13</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C288">
+        <v>14120</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>10</v>
       </c>
       <c r="B289">
         <v>14</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C289">
+        <v>9095</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>10</v>
       </c>
       <c r="B290">
         <v>15</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C290">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>10</v>
       </c>
       <c r="B291">
         <v>16</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C291">
+        <v>8147</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>10</v>
       </c>
       <c r="B292">
         <v>17</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C292">
+        <v>4878</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>10</v>
       </c>
       <c r="B293">
         <v>18</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C293">
+        <v>10647</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>10</v>
       </c>
       <c r="B294">
         <v>19</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C294">
+        <v>10532</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>10</v>
       </c>
       <c r="B295">
         <v>20</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C295">
+        <v>11974</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>10</v>
       </c>
       <c r="B296">
         <v>21</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C296">
+        <v>11636</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>10</v>
       </c>
       <c r="B297">
         <v>22</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C297">
+        <v>8574</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>10</v>
       </c>
       <c r="B298">
         <v>23</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C298">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>10</v>
       </c>
       <c r="B299">
         <v>24</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C299">
+        <v>23321</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>10</v>
       </c>
       <c r="B300">
         <v>25</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C300">
+        <v>8304</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>10</v>
       </c>
       <c r="B301">
         <v>26</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C301">
+        <v>7951</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>10</v>
       </c>
       <c r="B302">
         <v>27</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C302">
+        <v>7310</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>10</v>
       </c>
       <c r="B303">
         <v>28</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C303">
+        <v>9667</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>10</v>
       </c>
       <c r="B304">
         <v>29</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C304">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>10</v>
       </c>
       <c r="B305">
         <v>30</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C305">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>10</v>
       </c>
       <c r="B306">
         <v>31</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C306">
+        <v>11647</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>11</v>
       </c>
       <c r="B307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C307">
+        <v>6351</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>11</v>
       </c>
       <c r="B308">
         <v>2</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C308">
+        <v>8196</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>11</v>
       </c>
       <c r="B309">
         <v>3</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C309">
+        <v>7411</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>11</v>
       </c>
       <c r="B310">
         <v>4</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C310">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>11</v>
       </c>
       <c r="B311">
         <v>5</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C311">
+        <v>10691</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>11</v>
       </c>
       <c r="B312">
         <v>6</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C312">
+        <v>7915</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>11</v>
       </c>
       <c r="B313">
         <v>7</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C313">
+        <v>8159</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>11</v>
       </c>
       <c r="B314">
         <v>8</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C314">
+        <v>8632</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>11</v>
       </c>
       <c r="B315">
         <v>9</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C315">
+        <v>9331</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>11</v>
       </c>
       <c r="B316">
         <v>10</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C316">
+        <v>11684</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>11</v>
       </c>
       <c r="B317">
         <v>11</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C317">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>11</v>
       </c>
       <c r="B318">
         <v>12</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C318">
+        <v>10813</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>11</v>
       </c>
       <c r="B319">
         <v>13</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C319">
+        <v>30622</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>11</v>
       </c>
       <c r="B320">
         <v>14</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C320">
+        <v>12229</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>11</v>
       </c>
       <c r="B321">
         <v>15</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C321">
+        <v>18612</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>11</v>
       </c>
       <c r="B322">
         <v>16</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C322">
+        <v>8605</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>11</v>
       </c>
       <c r="B323">
         <v>17</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C323">
+        <v>8633</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>11</v>
       </c>
       <c r="B324">
         <v>18</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C324">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>11</v>
       </c>
       <c r="B325">
         <v>19</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C325">
+        <v>15942</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>11</v>
       </c>
@@ -3867,7 +3999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>11</v>
       </c>
@@ -3875,7 +4007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>11</v>
       </c>
@@ -3883,7 +4015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>11</v>
       </c>
@@ -3891,7 +4023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>11</v>
       </c>
@@ -3899,7 +4031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>11</v>
       </c>
@@ -3907,7 +4039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>11</v>
       </c>
@@ -3915,7 +4047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>11</v>
       </c>
@@ -3923,7 +4055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>11</v>
       </c>
@@ -3931,7 +4063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>11</v>
       </c>
@@ -3939,7 +4071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>11</v>
       </c>

--- a/StepData.xlsx
+++ b/StepData.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\CountingSteps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F90053F-7C79-493F-9EB7-5BBDACFE6CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D51396-1C5E-4895-8F2F-C13929FDF631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{F3AFDF18-1CE2-4C72-BD6C-2152A31A0244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$2:$C$325</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$326</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -400,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5CDEC8-326C-496F-8706-81C54FBAE51F}">
   <dimension ref="A1:I367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="L337" sqref="L337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3998,6 +3994,9 @@
       <c r="B326">
         <v>20</v>
       </c>
+      <c r="C326">
+        <v>14257</v>
+      </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
@@ -4006,6 +4005,9 @@
       <c r="B327">
         <v>21</v>
       </c>
+      <c r="C327">
+        <v>36558</v>
+      </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
@@ -4014,6 +4016,9 @@
       <c r="B328">
         <v>22</v>
       </c>
+      <c r="C328">
+        <v>13101</v>
+      </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
@@ -4022,6 +4027,9 @@
       <c r="B329">
         <v>23</v>
       </c>
+      <c r="C329">
+        <v>16089</v>
+      </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
@@ -4030,6 +4038,9 @@
       <c r="B330">
         <v>24</v>
       </c>
+      <c r="C330">
+        <v>9882</v>
+      </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
@@ -4038,6 +4049,9 @@
       <c r="B331">
         <v>25</v>
       </c>
+      <c r="C331">
+        <v>11480</v>
+      </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
@@ -4046,6 +4060,9 @@
       <c r="B332">
         <v>26</v>
       </c>
+      <c r="C332">
+        <v>6790</v>
+      </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
@@ -4054,6 +4071,9 @@
       <c r="B333">
         <v>27</v>
       </c>
+      <c r="C333">
+        <v>9443</v>
+      </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
@@ -4062,6 +4082,9 @@
       <c r="B334">
         <v>28</v>
       </c>
+      <c r="C334">
+        <v>3965</v>
+      </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
@@ -4069,6 +4092,9 @@
       </c>
       <c r="B335">
         <v>29</v>
+      </c>
+      <c r="C335">
+        <v>9321</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">

--- a/StepData.xlsx
+++ b/StepData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\CountingSteps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D51396-1C5E-4895-8F2F-C13929FDF631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD2C8D-B06A-4EF2-8BA5-E8E8A7523CB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{F3AFDF18-1CE2-4C72-BD6C-2152A31A0244}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Month</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Steps</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -394,3963 +397,5244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5CDEC8-326C-496F-8706-81C54FBAE51F}">
-  <dimension ref="A1:I367"/>
+  <dimension ref="A1:J373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="L337" sqref="L337"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="E370" sqref="E370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>2020</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>14040</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10023</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9210</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>9748</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>10887</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5132</v>
       </c>
-      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>6984</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8001</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>4923</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>2020</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>8030</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>4075</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>2020</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>9734</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>2020</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>7153</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>2020</v>
+      </c>
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>6972</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>2020</v>
+      </c>
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8720</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>2020</v>
+      </c>
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>9246</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>2020</v>
+      </c>
+      <c r="B18">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>6373</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>11749</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
+        <v>2020</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>11036</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>2020</v>
+      </c>
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>9013</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>6738</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>6999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="B24">
         <v>1</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>7292</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>12385</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>2020</v>
+      </c>
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>8472</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
+        <v>2020</v>
+      </c>
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>9365</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>2020</v>
+      </c>
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>9472</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
+        <v>2020</v>
+      </c>
+      <c r="B29">
         <v>1</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>9972</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
+        <v>2020</v>
+      </c>
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>8009</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>2020</v>
+      </c>
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>8263</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
+        <v>2020</v>
+      </c>
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>9164</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
+        <v>2020</v>
+      </c>
+      <c r="B33">
         <v>2</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>7394</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2</v>
+        <v>2020</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
         <v>9739</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
+        <v>2020</v>
+      </c>
+      <c r="B35">
         <v>2</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>3</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>10656</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
+        <v>2020</v>
+      </c>
+      <c r="B36">
         <v>2</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>4</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>8560</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
+        <v>2020</v>
+      </c>
+      <c r="B37">
         <v>2</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>5</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>6205</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
+        <v>2020</v>
+      </c>
+      <c r="B38">
         <v>2</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>6</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>8211</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
+        <v>2020</v>
+      </c>
+      <c r="B39">
         <v>2</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>7</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>7730</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
+        <v>2020</v>
+      </c>
+      <c r="B40">
         <v>2</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>8</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>7273</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
+        <v>2020</v>
+      </c>
+      <c r="B41">
         <v>2</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>9</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>2996</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
+        <v>2020</v>
+      </c>
+      <c r="B42">
         <v>2</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>10</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>8331</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
+        <v>2020</v>
+      </c>
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>11</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>9219</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
+        <v>2020</v>
+      </c>
+      <c r="B44">
         <v>2</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>12</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>8012</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
+        <v>2020</v>
+      </c>
+      <c r="B45">
         <v>2</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>13</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>13908</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
+        <v>2020</v>
+      </c>
+      <c r="B46">
         <v>2</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>14</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>7849</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
+        <v>2020</v>
+      </c>
+      <c r="B47">
         <v>2</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>15</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>12385</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
+        <v>2020</v>
+      </c>
+      <c r="B48">
         <v>2</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>16</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>6007</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
+        <v>2020</v>
+      </c>
+      <c r="B49">
         <v>2</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>17</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>10092</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
+        <v>2020</v>
+      </c>
+      <c r="B50">
         <v>2</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>18</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>9093</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
+        <v>2020</v>
+      </c>
+      <c r="B51">
         <v>2</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>19</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>6468</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
+        <v>2020</v>
+      </c>
+      <c r="B52">
         <v>2</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>20</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>9680</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
+        <v>2020</v>
+      </c>
+      <c r="B53">
         <v>2</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>21</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>7505</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
+        <v>2020</v>
+      </c>
+      <c r="B54">
         <v>2</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>22</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>8731</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
+        <v>2020</v>
+      </c>
+      <c r="B55">
         <v>2</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>23</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>7337</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
+        <v>2020</v>
+      </c>
+      <c r="B56">
         <v>2</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>24</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>6710</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
+        <v>2020</v>
+      </c>
+      <c r="B57">
         <v>2</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>25</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>8006</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
+        <v>2020</v>
+      </c>
+      <c r="B58">
         <v>2</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>26</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>6438</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
+        <v>2020</v>
+      </c>
+      <c r="B59">
         <v>2</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>27</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>7017</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
+        <v>2020</v>
+      </c>
+      <c r="B60">
         <v>2</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>28</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>8059</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
+        <v>2020</v>
+      </c>
+      <c r="B61">
         <v>2</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>29</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>3862</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
+        <v>2020</v>
+      </c>
+      <c r="B62">
         <v>3</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>1</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>22329</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
+        <v>2020</v>
+      </c>
+      <c r="B63">
         <v>3</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>2</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>6751</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>3</v>
+        <v>2020</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
         <v>1117</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
+        <v>2020</v>
+      </c>
+      <c r="B65">
         <v>3</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>4</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>12772</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
+        <v>2020</v>
+      </c>
+      <c r="B66">
         <v>3</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>5</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>19158</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
+        <v>2020</v>
+      </c>
+      <c r="B67">
         <v>3</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>6</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>7499</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
+        <v>2020</v>
+      </c>
+      <c r="B68">
         <v>3</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>7</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>16181</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
+        <v>2020</v>
+      </c>
+      <c r="B69">
         <v>3</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>8</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>5746</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
+        <v>2020</v>
+      </c>
+      <c r="B70">
         <v>3</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>9</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>8005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
+        <v>2020</v>
+      </c>
+      <c r="B71">
         <v>3</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>10</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>17820</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
+        <v>2020</v>
+      </c>
+      <c r="B72">
         <v>3</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>11</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>18701</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
+        <v>2020</v>
+      </c>
+      <c r="B73">
         <v>3</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>12</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>10945</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
+        <v>2020</v>
+      </c>
+      <c r="B74">
         <v>3</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>13</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>5075</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
+        <v>2020</v>
+      </c>
+      <c r="B75">
         <v>3</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>14</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>7876</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
+        <v>2020</v>
+      </c>
+      <c r="B76">
         <v>3</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>15</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>9119</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
+        <v>2020</v>
+      </c>
+      <c r="B77">
         <v>3</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>16</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>8138</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
+        <v>2020</v>
+      </c>
+      <c r="B78">
         <v>3</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>17</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>8267</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
+        <v>2020</v>
+      </c>
+      <c r="B79">
         <v>3</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>18</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>8368</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
+        <v>2020</v>
+      </c>
+      <c r="B80">
         <v>3</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>19</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>8182</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
+        <v>2020</v>
+      </c>
+      <c r="B81">
         <v>3</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>20</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>10863</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
+        <v>2020</v>
+      </c>
+      <c r="B82">
         <v>3</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>21</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>8596</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
+        <v>2020</v>
+      </c>
+      <c r="B83">
         <v>3</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>22</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>20017</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
+        <v>2020</v>
+      </c>
+      <c r="B84">
         <v>3</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>23</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>1133</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
+        <v>2020</v>
+      </c>
+      <c r="B85">
         <v>3</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>24</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>8211</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
+        <v>2020</v>
+      </c>
+      <c r="B86">
         <v>3</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>25</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>13343</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
+        <v>2020</v>
+      </c>
+      <c r="B87">
         <v>3</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>26</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>8319</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
+        <v>2020</v>
+      </c>
+      <c r="B88">
         <v>3</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>27</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>8156</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
+        <v>2020</v>
+      </c>
+      <c r="B89">
         <v>3</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>28</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>8458</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
+        <v>2020</v>
+      </c>
+      <c r="B90">
         <v>3</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>29</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>8074</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
+        <v>2020</v>
+      </c>
+      <c r="B91">
         <v>3</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>30</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>9504</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
+        <v>2020</v>
+      </c>
+      <c r="B92">
         <v>3</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>31</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>8045</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
+        <v>2020</v>
+      </c>
+      <c r="B93">
         <v>4</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>1</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>9420</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
+        <v>2020</v>
+      </c>
+      <c r="B94">
         <v>4</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>2</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>7963</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
+        <v>2020</v>
+      </c>
+      <c r="B95">
         <v>4</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>3</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>7790</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>4</v>
+        <v>2020</v>
       </c>
       <c r="B96">
         <v>4</v>
       </c>
       <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
         <v>8027</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
+        <v>2020</v>
+      </c>
+      <c r="B97">
         <v>4</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>5</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>13900</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
+        <v>2020</v>
+      </c>
+      <c r="B98">
         <v>4</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>6</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>8012</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
+        <v>2020</v>
+      </c>
+      <c r="B99">
         <v>4</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>7</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>10264</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
+        <v>2020</v>
+      </c>
+      <c r="B100">
         <v>4</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>8</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>11072</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
+        <v>2020</v>
+      </c>
+      <c r="B101">
         <v>4</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>9</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>8248</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
+        <v>2020</v>
+      </c>
+      <c r="B102">
         <v>4</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>10</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>5639</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
+        <v>2020</v>
+      </c>
+      <c r="B103">
         <v>4</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>11</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>8066</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
+        <v>2020</v>
+      </c>
+      <c r="B104">
         <v>4</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>12</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>10020</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
+        <v>2020</v>
+      </c>
+      <c r="B105">
         <v>4</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>13</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>7494</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
+        <v>2020</v>
+      </c>
+      <c r="B106">
         <v>4</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>14</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>2301</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
+        <v>2020</v>
+      </c>
+      <c r="B107">
         <v>4</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>15</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>7884</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
+        <v>2020</v>
+      </c>
+      <c r="B108">
         <v>4</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>16</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>11183</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
+        <v>2020</v>
+      </c>
+      <c r="B109">
         <v>4</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>17</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>1569</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
+        <v>2020</v>
+      </c>
+      <c r="B110">
         <v>4</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>18</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>8311</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
+        <v>2020</v>
+      </c>
+      <c r="B111">
         <v>4</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>19</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>8477</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
+        <v>2020</v>
+      </c>
+      <c r="B112">
         <v>4</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>20</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>2010</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
+        <v>2020</v>
+      </c>
+      <c r="B113">
         <v>4</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>21</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>8080</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
+        <v>2020</v>
+      </c>
+      <c r="B114">
         <v>4</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>22</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>1385</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
+        <v>2020</v>
+      </c>
+      <c r="B115">
         <v>4</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>23</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>8002</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
+        <v>2020</v>
+      </c>
+      <c r="B116">
         <v>4</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>24</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>7436</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
+        <v>2020</v>
+      </c>
+      <c r="B117">
         <v>4</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>25</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>5089</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
+        <v>2020</v>
+      </c>
+      <c r="B118">
         <v>4</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>26</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>975</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
+        <v>2020</v>
+      </c>
+      <c r="B119">
         <v>4</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>27</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>7486</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
+        <v>2020</v>
+      </c>
+      <c r="B120">
         <v>4</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>28</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>8832</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
+        <v>2020</v>
+      </c>
+      <c r="B121">
         <v>4</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>29</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>1075</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
+        <v>2020</v>
+      </c>
+      <c r="B122">
         <v>4</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>30</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>500</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
+        <v>2020</v>
+      </c>
+      <c r="B123">
         <v>5</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>1</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>8482</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
+        <v>2020</v>
+      </c>
+      <c r="B124">
         <v>5</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>2</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>18740</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
+        <v>2020</v>
+      </c>
+      <c r="B125">
         <v>5</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>3</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>8489</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
+        <v>2020</v>
+      </c>
+      <c r="B126">
         <v>5</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>4</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>12138</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>5</v>
+        <v>2020</v>
       </c>
       <c r="B127">
         <v>5</v>
       </c>
       <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
         <v>8511</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
+        <v>2020</v>
+      </c>
+      <c r="B128">
         <v>5</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>6</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>625</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
+        <v>2020</v>
+      </c>
+      <c r="B129">
         <v>5</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>7</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>8047</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
+        <v>2020</v>
+      </c>
+      <c r="B130">
         <v>5</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>8</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>8094</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
+        <v>2020</v>
+      </c>
+      <c r="B131">
         <v>5</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>9</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>8787</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
+        <v>2020</v>
+      </c>
+      <c r="B132">
         <v>5</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>10</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>8153</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
+        <v>2020</v>
+      </c>
+      <c r="B133">
         <v>5</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>11</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>6386</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
+        <v>2020</v>
+      </c>
+      <c r="B134">
         <v>5</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>12</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>8312</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
+        <v>2020</v>
+      </c>
+      <c r="B135">
         <v>5</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>13</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>8027</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
+        <v>2020</v>
+      </c>
+      <c r="B136">
         <v>5</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>14</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>8039</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
+        <v>2020</v>
+      </c>
+      <c r="B137">
         <v>5</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>15</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>8080</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
+        <v>2020</v>
+      </c>
+      <c r="B138">
         <v>5</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>16</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>14941</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
+        <v>2020</v>
+      </c>
+      <c r="B139">
         <v>5</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>17</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>7934</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
+        <v>2020</v>
+      </c>
+      <c r="B140">
         <v>5</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>18</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>8395</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
+        <v>2020</v>
+      </c>
+      <c r="B141">
         <v>5</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>19</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>5496</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
+        <v>2020</v>
+      </c>
+      <c r="B142">
         <v>5</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>20</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>7495</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
+        <v>2020</v>
+      </c>
+      <c r="B143">
         <v>5</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>21</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>10747</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
+        <v>2020</v>
+      </c>
+      <c r="B144">
         <v>5</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>22</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>3405</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
+        <v>2020</v>
+      </c>
+      <c r="B145">
         <v>5</v>
       </c>
-      <c r="B145">
+      <c r="C145">
         <v>23</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>3339</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
+        <v>2020</v>
+      </c>
+      <c r="B146">
         <v>5</v>
       </c>
-      <c r="B146">
+      <c r="C146">
         <v>24</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>3352</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
+        <v>2020</v>
+      </c>
+      <c r="B147">
         <v>5</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>25</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>8133</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
+        <v>2020</v>
+      </c>
+      <c r="B148">
         <v>5</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>26</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>8033</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
+        <v>2020</v>
+      </c>
+      <c r="B149">
         <v>5</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>27</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>8630</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
+        <v>2020</v>
+      </c>
+      <c r="B150">
         <v>5</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>28</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>13987</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
+        <v>2020</v>
+      </c>
+      <c r="B151">
         <v>5</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>29</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>12902</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
+        <v>2020</v>
+      </c>
+      <c r="B152">
         <v>5</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>30</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>5739</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
+        <v>2020</v>
+      </c>
+      <c r="B153">
         <v>5</v>
       </c>
-      <c r="B153">
+      <c r="C153">
         <v>31</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>3714</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
+        <v>2020</v>
+      </c>
+      <c r="B154">
         <v>6</v>
       </c>
-      <c r="B154">
+      <c r="C154">
         <v>1</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>4962</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
+        <v>2020</v>
+      </c>
+      <c r="B155">
         <v>6</v>
       </c>
-      <c r="B155">
+      <c r="C155">
         <v>2</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>8273</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
+        <v>2020</v>
+      </c>
+      <c r="B156">
         <v>6</v>
       </c>
-      <c r="B156">
+      <c r="C156">
         <v>3</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <v>9462</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
+        <v>2020</v>
+      </c>
+      <c r="B157">
         <v>6</v>
       </c>
-      <c r="B157">
+      <c r="C157">
         <v>4</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <v>4381</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
+        <v>2020</v>
+      </c>
+      <c r="B158">
         <v>6</v>
       </c>
-      <c r="B158">
+      <c r="C158">
         <v>5</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>7655</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>6</v>
+        <v>2020</v>
       </c>
       <c r="B159">
         <v>6</v>
       </c>
       <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159">
         <v>18020</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
+        <v>2020</v>
+      </c>
+      <c r="B160">
         <v>6</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>7</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>10441</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
+        <v>2020</v>
+      </c>
+      <c r="B161">
         <v>6</v>
       </c>
-      <c r="B161">
+      <c r="C161">
         <v>8</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>7811</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
+        <v>2020</v>
+      </c>
+      <c r="B162">
         <v>6</v>
       </c>
-      <c r="B162">
+      <c r="C162">
         <v>9</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <v>4250</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
+        <v>2020</v>
+      </c>
+      <c r="B163">
         <v>6</v>
       </c>
-      <c r="B163">
+      <c r="C163">
         <v>10</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>8361</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
+        <v>2020</v>
+      </c>
+      <c r="B164">
         <v>6</v>
       </c>
-      <c r="B164">
+      <c r="C164">
         <v>11</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>6762</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
+        <v>2020</v>
+      </c>
+      <c r="B165">
         <v>6</v>
       </c>
-      <c r="B165">
+      <c r="C165">
         <v>12</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>14359</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
+        <v>2020</v>
+      </c>
+      <c r="B166">
         <v>6</v>
       </c>
-      <c r="B166">
+      <c r="C166">
         <v>13</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>8374</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
+        <v>2020</v>
+      </c>
+      <c r="B167">
         <v>6</v>
       </c>
-      <c r="B167">
+      <c r="C167">
         <v>14</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>10725</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
+        <v>2020</v>
+      </c>
+      <c r="B168">
         <v>6</v>
       </c>
-      <c r="B168">
+      <c r="C168">
         <v>15</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <v>7918</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
+        <v>2020</v>
+      </c>
+      <c r="B169">
         <v>6</v>
       </c>
-      <c r="B169">
+      <c r="C169">
         <v>16</v>
       </c>
-      <c r="C169">
+      <c r="D169">
         <v>16584</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
+        <v>2020</v>
+      </c>
+      <c r="B170">
         <v>6</v>
       </c>
-      <c r="B170">
+      <c r="C170">
         <v>17</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>8670</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
+        <v>2020</v>
+      </c>
+      <c r="B171">
         <v>6</v>
       </c>
-      <c r="B171">
+      <c r="C171">
         <v>18</v>
       </c>
-      <c r="C171">
+      <c r="D171">
         <v>9929</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
+        <v>2020</v>
+      </c>
+      <c r="B172">
         <v>6</v>
       </c>
-      <c r="B172">
+      <c r="C172">
         <v>19</v>
       </c>
-      <c r="C172">
+      <c r="D172">
         <v>10941</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
+        <v>2020</v>
+      </c>
+      <c r="B173">
         <v>6</v>
       </c>
-      <c r="B173">
+      <c r="C173">
         <v>20</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>8132</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
+        <v>2020</v>
+      </c>
+      <c r="B174">
         <v>6</v>
       </c>
-      <c r="B174">
+      <c r="C174">
         <v>21</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <v>7717</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
+        <v>2020</v>
+      </c>
+      <c r="B175">
         <v>6</v>
       </c>
-      <c r="B175">
+      <c r="C175">
         <v>22</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <v>5985</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
+        <v>2020</v>
+      </c>
+      <c r="B176">
         <v>6</v>
       </c>
-      <c r="B176">
+      <c r="C176">
         <v>23</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>7611</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
+        <v>2020</v>
+      </c>
+      <c r="B177">
         <v>6</v>
       </c>
-      <c r="B177">
+      <c r="C177">
         <v>24</v>
       </c>
-      <c r="C177">
+      <c r="D177">
         <v>7564</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
+        <v>2020</v>
+      </c>
+      <c r="B178">
         <v>6</v>
       </c>
-      <c r="B178">
+      <c r="C178">
         <v>25</v>
       </c>
-      <c r="C178">
+      <c r="D178">
         <v>2057</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
+        <v>2020</v>
+      </c>
+      <c r="B179">
         <v>6</v>
       </c>
-      <c r="B179">
+      <c r="C179">
         <v>26</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <v>2816</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
+        <v>2020</v>
+      </c>
+      <c r="B180">
         <v>6</v>
       </c>
-      <c r="B180">
+      <c r="C180">
         <v>27</v>
       </c>
-      <c r="C180">
+      <c r="D180">
         <v>8100</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
+        <v>2020</v>
+      </c>
+      <c r="B181">
         <v>6</v>
       </c>
-      <c r="B181">
+      <c r="C181">
         <v>28</v>
       </c>
-      <c r="C181">
+      <c r="D181">
         <v>7082</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
+        <v>2020</v>
+      </c>
+      <c r="B182">
         <v>6</v>
       </c>
-      <c r="B182">
+      <c r="C182">
         <v>29</v>
       </c>
-      <c r="C182">
+      <c r="D182">
         <v>5517</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
+        <v>2020</v>
+      </c>
+      <c r="B183">
         <v>6</v>
       </c>
-      <c r="B183">
+      <c r="C183">
         <v>30</v>
       </c>
-      <c r="C183">
+      <c r="D183">
         <v>8295</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
+        <v>2020</v>
+      </c>
+      <c r="B184">
         <v>7</v>
       </c>
-      <c r="B184">
+      <c r="C184">
         <v>1</v>
       </c>
-      <c r="C184">
+      <c r="D184">
         <v>9002</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
+        <v>2020</v>
+      </c>
+      <c r="B185">
         <v>7</v>
       </c>
-      <c r="B185">
+      <c r="C185">
         <v>2</v>
       </c>
-      <c r="C185">
+      <c r="D185">
         <v>925</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
+        <v>2020</v>
+      </c>
+      <c r="B186">
         <v>7</v>
       </c>
-      <c r="B186">
+      <c r="C186">
         <v>3</v>
       </c>
-      <c r="C186">
+      <c r="D186">
         <v>5045</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
+        <v>2020</v>
+      </c>
+      <c r="B187">
         <v>7</v>
       </c>
-      <c r="B187">
+      <c r="C187">
         <v>4</v>
       </c>
-      <c r="C187">
+      <c r="D187">
         <v>5083</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
+        <v>2020</v>
+      </c>
+      <c r="B188">
         <v>7</v>
       </c>
-      <c r="B188">
+      <c r="C188">
         <v>5</v>
       </c>
-      <c r="C188">
+      <c r="D188">
         <v>15435</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
+        <v>2020</v>
+      </c>
+      <c r="B189">
         <v>7</v>
       </c>
-      <c r="B189">
+      <c r="C189">
         <v>6</v>
       </c>
-      <c r="C189">
+      <c r="D189">
         <v>3150</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>7</v>
+        <v>2020</v>
       </c>
       <c r="B190">
         <v>7</v>
       </c>
       <c r="C190">
+        <v>7</v>
+      </c>
+      <c r="D190">
         <v>6075</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
+        <v>2020</v>
+      </c>
+      <c r="B191">
         <v>7</v>
       </c>
-      <c r="B191">
+      <c r="C191">
         <v>8</v>
       </c>
-      <c r="C191">
+      <c r="D191">
         <v>4622</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
+        <v>2020</v>
+      </c>
+      <c r="B192">
         <v>7</v>
       </c>
-      <c r="B192">
+      <c r="C192">
         <v>9</v>
       </c>
-      <c r="C192">
+      <c r="D192">
         <v>8830</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
+        <v>2020</v>
+      </c>
+      <c r="B193">
         <v>7</v>
       </c>
-      <c r="B193">
+      <c r="C193">
         <v>10</v>
       </c>
-      <c r="C193">
+      <c r="D193">
         <v>4838</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
+        <v>2020</v>
+      </c>
+      <c r="B194">
         <v>7</v>
       </c>
-      <c r="B194">
+      <c r="C194">
         <v>11</v>
       </c>
-      <c r="C194">
+      <c r="D194">
         <v>2641</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
+        <v>2020</v>
+      </c>
+      <c r="B195">
         <v>7</v>
       </c>
-      <c r="B195">
+      <c r="C195">
         <v>12</v>
       </c>
-      <c r="C195">
+      <c r="D195">
         <v>6144</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
+        <v>2020</v>
+      </c>
+      <c r="B196">
         <v>7</v>
       </c>
-      <c r="B196">
+      <c r="C196">
         <v>13</v>
       </c>
-      <c r="C196">
+      <c r="D196">
         <v>9375</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
+        <v>2020</v>
+      </c>
+      <c r="B197">
         <v>7</v>
       </c>
-      <c r="B197">
+      <c r="C197">
         <v>14</v>
       </c>
-      <c r="C197">
+      <c r="D197">
         <v>8861</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
+        <v>2020</v>
+      </c>
+      <c r="B198">
         <v>7</v>
       </c>
-      <c r="B198">
+      <c r="C198">
         <v>15</v>
       </c>
-      <c r="C198">
+      <c r="D198">
         <v>9861</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
+        <v>2020</v>
+      </c>
+      <c r="B199">
         <v>7</v>
       </c>
-      <c r="B199">
+      <c r="C199">
         <v>16</v>
       </c>
-      <c r="C199">
+      <c r="D199">
         <v>5168</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
+        <v>2020</v>
+      </c>
+      <c r="B200">
         <v>7</v>
       </c>
-      <c r="B200">
+      <c r="C200">
         <v>17</v>
       </c>
-      <c r="C200">
+      <c r="D200">
         <v>4839</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
+        <v>2020</v>
+      </c>
+      <c r="B201">
         <v>7</v>
       </c>
-      <c r="B201">
+      <c r="C201">
         <v>18</v>
       </c>
-      <c r="C201">
+      <c r="D201">
         <v>1482</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
+        <v>2020</v>
+      </c>
+      <c r="B202">
         <v>7</v>
       </c>
-      <c r="B202">
+      <c r="C202">
         <v>19</v>
       </c>
-      <c r="C202">
+      <c r="D202">
         <v>1830</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
+        <v>2020</v>
+      </c>
+      <c r="B203">
         <v>7</v>
       </c>
-      <c r="B203">
+      <c r="C203">
         <v>20</v>
       </c>
-      <c r="C203">
+      <c r="D203">
         <v>4477</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
+        <v>2020</v>
+      </c>
+      <c r="B204">
         <v>7</v>
       </c>
-      <c r="B204">
+      <c r="C204">
         <v>21</v>
       </c>
-      <c r="C204">
+      <c r="D204">
         <v>5603</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
+        <v>2020</v>
+      </c>
+      <c r="B205">
         <v>7</v>
       </c>
-      <c r="B205">
+      <c r="C205">
         <v>22</v>
       </c>
-      <c r="C205">
+      <c r="D205">
         <v>3981</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
+        <v>2020</v>
+      </c>
+      <c r="B206">
         <v>7</v>
       </c>
-      <c r="B206">
+      <c r="C206">
         <v>23</v>
       </c>
-      <c r="C206">
+      <c r="D206">
         <v>8621</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
+        <v>2020</v>
+      </c>
+      <c r="B207">
         <v>7</v>
       </c>
-      <c r="B207">
+      <c r="C207">
         <v>24</v>
       </c>
-      <c r="C207">
+      <c r="D207">
         <v>8902</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
+        <v>2020</v>
+      </c>
+      <c r="B208">
         <v>7</v>
       </c>
-      <c r="B208">
+      <c r="C208">
         <v>25</v>
       </c>
-      <c r="C208">
+      <c r="D208">
         <v>3104</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
+        <v>2020</v>
+      </c>
+      <c r="B209">
         <v>7</v>
       </c>
-      <c r="B209">
+      <c r="C209">
         <v>26</v>
       </c>
-      <c r="C209">
+      <c r="D209">
         <v>3957</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
+        <v>2020</v>
+      </c>
+      <c r="B210">
         <v>7</v>
       </c>
-      <c r="B210">
+      <c r="C210">
         <v>27</v>
       </c>
-      <c r="C210">
+      <c r="D210">
         <v>7395</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
+        <v>2020</v>
+      </c>
+      <c r="B211">
         <v>7</v>
       </c>
-      <c r="B211">
+      <c r="C211">
         <v>28</v>
       </c>
-      <c r="C211">
+      <c r="D211">
         <v>4958</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
+        <v>2020</v>
+      </c>
+      <c r="B212">
         <v>7</v>
       </c>
-      <c r="B212">
+      <c r="C212">
         <v>29</v>
       </c>
-      <c r="C212">
+      <c r="D212">
         <v>13878</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
+        <v>2020</v>
+      </c>
+      <c r="B213">
         <v>7</v>
       </c>
-      <c r="B213">
+      <c r="C213">
         <v>30</v>
       </c>
-      <c r="C213">
+      <c r="D213">
         <v>11088</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
+        <v>2020</v>
+      </c>
+      <c r="B214">
         <v>7</v>
       </c>
-      <c r="B214">
+      <c r="C214">
         <v>31</v>
       </c>
-      <c r="C214">
+      <c r="D214">
         <v>8703</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
+        <v>2020</v>
+      </c>
+      <c r="B215">
         <v>8</v>
       </c>
-      <c r="B215">
+      <c r="C215">
         <v>1</v>
       </c>
-      <c r="C215">
+      <c r="D215">
         <v>4385</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
+        <v>2020</v>
+      </c>
+      <c r="B216">
         <v>8</v>
       </c>
-      <c r="B216">
+      <c r="C216">
         <v>2</v>
       </c>
-      <c r="C216">
+      <c r="D216">
         <v>8093</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
+        <v>2020</v>
+      </c>
+      <c r="B217">
         <v>8</v>
       </c>
-      <c r="B217">
+      <c r="C217">
         <v>3</v>
       </c>
-      <c r="C217">
+      <c r="D217">
         <v>7244</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
+        <v>2020</v>
+      </c>
+      <c r="B218">
         <v>8</v>
       </c>
-      <c r="B218">
+      <c r="C218">
         <v>4</v>
       </c>
-      <c r="C218">
+      <c r="D218">
         <v>3298</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
+        <v>2020</v>
+      </c>
+      <c r="B219">
         <v>8</v>
       </c>
-      <c r="B219">
+      <c r="C219">
         <v>5</v>
       </c>
-      <c r="C219">
+      <c r="D219">
         <v>9279</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
+        <v>2020</v>
+      </c>
+      <c r="B220">
         <v>8</v>
       </c>
-      <c r="B220">
+      <c r="C220">
         <v>6</v>
       </c>
-      <c r="C220">
+      <c r="D220">
         <v>8973</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
+        <v>2020</v>
+      </c>
+      <c r="B221">
         <v>8</v>
       </c>
-      <c r="B221">
+      <c r="C221">
         <v>7</v>
       </c>
-      <c r="C221">
+      <c r="D221">
         <v>7937</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>8</v>
+        <v>2020</v>
       </c>
       <c r="B222">
         <v>8</v>
       </c>
       <c r="C222">
+        <v>8</v>
+      </c>
+      <c r="D222">
         <v>6873</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
+        <v>2020</v>
+      </c>
+      <c r="B223">
         <v>8</v>
       </c>
-      <c r="B223">
+      <c r="C223">
         <v>9</v>
       </c>
-      <c r="C223">
+      <c r="D223">
         <v>8594</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
+        <v>2020</v>
+      </c>
+      <c r="B224">
         <v>8</v>
       </c>
-      <c r="B224">
+      <c r="C224">
         <v>10</v>
       </c>
-      <c r="C224">
+      <c r="D224">
         <v>8395</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
+        <v>2020</v>
+      </c>
+      <c r="B225">
         <v>8</v>
       </c>
-      <c r="B225">
+      <c r="C225">
         <v>11</v>
       </c>
-      <c r="C225">
+      <c r="D225">
         <v>6904</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
+        <v>2020</v>
+      </c>
+      <c r="B226">
         <v>8</v>
       </c>
-      <c r="B226">
+      <c r="C226">
         <v>12</v>
       </c>
-      <c r="C226">
+      <c r="D226">
         <v>7735</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
+        <v>2020</v>
+      </c>
+      <c r="B227">
         <v>8</v>
       </c>
-      <c r="B227">
+      <c r="C227">
         <v>13</v>
       </c>
-      <c r="C227">
+      <c r="D227">
         <v>8301</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
+        <v>2020</v>
+      </c>
+      <c r="B228">
         <v>8</v>
       </c>
-      <c r="B228">
+      <c r="C228">
         <v>14</v>
       </c>
-      <c r="C228">
+      <c r="D228">
         <v>4550</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
+        <v>2020</v>
+      </c>
+      <c r="B229">
         <v>8</v>
       </c>
-      <c r="B229">
+      <c r="C229">
         <v>15</v>
       </c>
-      <c r="C229">
+      <c r="D229">
         <v>3905</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
+        <v>2020</v>
+      </c>
+      <c r="B230">
         <v>8</v>
       </c>
-      <c r="B230">
+      <c r="C230">
         <v>16</v>
       </c>
-      <c r="C230">
+      <c r="D230">
         <v>5273</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
+        <v>2020</v>
+      </c>
+      <c r="B231">
         <v>8</v>
       </c>
-      <c r="B231">
+      <c r="C231">
         <v>17</v>
       </c>
-      <c r="C231">
+      <c r="D231">
         <v>9205</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
+        <v>2020</v>
+      </c>
+      <c r="B232">
         <v>8</v>
       </c>
-      <c r="B232">
+      <c r="C232">
         <v>18</v>
       </c>
-      <c r="C232">
+      <c r="D232">
         <v>6464</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
+        <v>2020</v>
+      </c>
+      <c r="B233">
         <v>8</v>
       </c>
-      <c r="B233">
+      <c r="C233">
         <v>19</v>
       </c>
-      <c r="C233">
+      <c r="D233">
         <v>8153</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
+        <v>2020</v>
+      </c>
+      <c r="B234">
         <v>8</v>
       </c>
-      <c r="B234">
+      <c r="C234">
         <v>20</v>
       </c>
-      <c r="C234">
+      <c r="D234">
         <v>5648</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
+        <v>2020</v>
+      </c>
+      <c r="B235">
         <v>8</v>
       </c>
-      <c r="B235">
+      <c r="C235">
         <v>21</v>
       </c>
-      <c r="C235">
+      <c r="D235">
         <v>8152</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
+        <v>2020</v>
+      </c>
+      <c r="B236">
         <v>8</v>
       </c>
-      <c r="B236">
+      <c r="C236">
         <v>22</v>
       </c>
-      <c r="C236">
+      <c r="D236">
         <v>4865</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
+        <v>2020</v>
+      </c>
+      <c r="B237">
         <v>8</v>
       </c>
-      <c r="B237">
+      <c r="C237">
         <v>23</v>
       </c>
-      <c r="C237">
+      <c r="D237">
         <v>14431</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
+        <v>2020</v>
+      </c>
+      <c r="B238">
         <v>8</v>
       </c>
-      <c r="B238">
+      <c r="C238">
         <v>24</v>
       </c>
-      <c r="C238">
+      <c r="D238">
         <v>8371</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
+        <v>2020</v>
+      </c>
+      <c r="B239">
         <v>8</v>
       </c>
-      <c r="B239">
+      <c r="C239">
         <v>25</v>
       </c>
-      <c r="C239">
+      <c r="D239">
         <v>9996</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
+        <v>2020</v>
+      </c>
+      <c r="B240">
         <v>8</v>
       </c>
-      <c r="B240">
+      <c r="C240">
         <v>26</v>
       </c>
-      <c r="C240">
+      <c r="D240">
         <v>9335</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
+        <v>2020</v>
+      </c>
+      <c r="B241">
         <v>8</v>
       </c>
-      <c r="B241">
+      <c r="C241">
         <v>27</v>
       </c>
-      <c r="C241">
+      <c r="D241">
         <v>8303</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
+        <v>2020</v>
+      </c>
+      <c r="B242">
         <v>8</v>
       </c>
-      <c r="B242">
+      <c r="C242">
         <v>28</v>
       </c>
-      <c r="C242">
+      <c r="D242">
         <v>9083</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
+        <v>2020</v>
+      </c>
+      <c r="B243">
         <v>8</v>
       </c>
-      <c r="B243">
+      <c r="C243">
         <v>29</v>
       </c>
-      <c r="C243">
+      <c r="D243">
         <v>10376</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
+        <v>2020</v>
+      </c>
+      <c r="B244">
         <v>8</v>
       </c>
-      <c r="B244">
+      <c r="C244">
         <v>30</v>
       </c>
-      <c r="C244">
+      <c r="D244">
         <v>10474</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
+        <v>2020</v>
+      </c>
+      <c r="B245">
         <v>8</v>
       </c>
-      <c r="B245">
+      <c r="C245">
         <v>31</v>
       </c>
-      <c r="C245">
+      <c r="D245">
         <v>13872</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
+        <v>2020</v>
+      </c>
+      <c r="B246">
         <v>9</v>
       </c>
-      <c r="B246">
+      <c r="C246">
         <v>1</v>
       </c>
-      <c r="C246">
+      <c r="D246">
         <v>8914</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
+        <v>2020</v>
+      </c>
+      <c r="B247">
         <v>9</v>
       </c>
-      <c r="B247">
+      <c r="C247">
         <v>2</v>
       </c>
-      <c r="C247">
+      <c r="D247">
         <v>8598</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
+        <v>2020</v>
+      </c>
+      <c r="B248">
         <v>9</v>
       </c>
-      <c r="B248">
+      <c r="C248">
         <v>3</v>
       </c>
-      <c r="C248">
+      <c r="D248">
         <v>8723</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
+        <v>2020</v>
+      </c>
+      <c r="B249">
         <v>9</v>
       </c>
-      <c r="B249">
+      <c r="C249">
         <v>4</v>
       </c>
-      <c r="C249">
+      <c r="D249">
         <v>8475</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
+        <v>2020</v>
+      </c>
+      <c r="B250">
         <v>9</v>
       </c>
-      <c r="B250">
+      <c r="C250">
         <v>5</v>
       </c>
-      <c r="C250">
+      <c r="D250">
         <v>3382</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
+        <v>2020</v>
+      </c>
+      <c r="B251">
         <v>9</v>
       </c>
-      <c r="B251">
+      <c r="C251">
         <v>6</v>
       </c>
-      <c r="C251">
+      <c r="D251">
         <v>10132</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
+        <v>2020</v>
+      </c>
+      <c r="B252">
         <v>9</v>
       </c>
-      <c r="B252">
+      <c r="C252">
         <v>7</v>
       </c>
-      <c r="C252">
+      <c r="D252">
         <v>13699</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
+        <v>2020</v>
+      </c>
+      <c r="B253">
         <v>9</v>
       </c>
-      <c r="B253">
+      <c r="C253">
         <v>8</v>
       </c>
-      <c r="C253">
+      <c r="D253">
         <v>9492</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>9</v>
+        <v>2020</v>
       </c>
       <c r="B254">
         <v>9</v>
       </c>
       <c r="C254">
+        <v>9</v>
+      </c>
+      <c r="D254">
         <v>8033</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
+        <v>2020</v>
+      </c>
+      <c r="B255">
         <v>9</v>
       </c>
-      <c r="B255">
+      <c r="C255">
         <v>10</v>
       </c>
-      <c r="C255">
+      <c r="D255">
         <v>12927</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
+        <v>2020</v>
+      </c>
+      <c r="B256">
         <v>9</v>
       </c>
-      <c r="B256">
+      <c r="C256">
         <v>11</v>
       </c>
-      <c r="C256">
+      <c r="D256">
         <v>7745</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
+        <v>2020</v>
+      </c>
+      <c r="B257">
         <v>9</v>
       </c>
-      <c r="B257">
+      <c r="C257">
         <v>12</v>
       </c>
-      <c r="C257">
+      <c r="D257">
         <v>7161</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
+        <v>2020</v>
+      </c>
+      <c r="B258">
         <v>9</v>
       </c>
-      <c r="B258">
+      <c r="C258">
         <v>13</v>
       </c>
-      <c r="C258">
+      <c r="D258">
         <v>15022</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
+        <v>2020</v>
+      </c>
+      <c r="B259">
         <v>9</v>
       </c>
-      <c r="B259">
+      <c r="C259">
         <v>14</v>
       </c>
-      <c r="C259">
+      <c r="D259">
         <v>8236</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
+        <v>2020</v>
+      </c>
+      <c r="B260">
         <v>9</v>
       </c>
-      <c r="B260">
+      <c r="C260">
         <v>15</v>
       </c>
-      <c r="C260">
+      <c r="D260">
         <v>6999</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
+        <v>2020</v>
+      </c>
+      <c r="B261">
         <v>9</v>
       </c>
-      <c r="B261">
+      <c r="C261">
         <v>16</v>
       </c>
-      <c r="C261">
+      <c r="D261">
         <v>7366</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
+        <v>2020</v>
+      </c>
+      <c r="B262">
         <v>9</v>
       </c>
-      <c r="B262">
+      <c r="C262">
         <v>17</v>
       </c>
-      <c r="C262">
+      <c r="D262">
         <v>6928</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
+        <v>2020</v>
+      </c>
+      <c r="B263">
         <v>9</v>
       </c>
-      <c r="B263">
+      <c r="C263">
         <v>18</v>
       </c>
-      <c r="C263">
+      <c r="D263">
         <v>6776</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
+        <v>2020</v>
+      </c>
+      <c r="B264">
         <v>9</v>
       </c>
-      <c r="B264">
+      <c r="C264">
         <v>19</v>
       </c>
-      <c r="C264">
+      <c r="D264">
         <v>16505</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
+        <v>2020</v>
+      </c>
+      <c r="B265">
         <v>9</v>
       </c>
-      <c r="B265">
+      <c r="C265">
         <v>20</v>
       </c>
-      <c r="C265">
+      <c r="D265">
         <v>6296</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
+        <v>2020</v>
+      </c>
+      <c r="B266">
         <v>9</v>
       </c>
-      <c r="B266">
+      <c r="C266">
         <v>21</v>
       </c>
-      <c r="C266">
+      <c r="D266">
         <v>7989</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
+        <v>2020</v>
+      </c>
+      <c r="B267">
         <v>9</v>
       </c>
-      <c r="B267">
+      <c r="C267">
         <v>22</v>
       </c>
-      <c r="C267">
+      <c r="D267">
         <v>8231</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
+        <v>2020</v>
+      </c>
+      <c r="B268">
         <v>9</v>
       </c>
-      <c r="B268">
+      <c r="C268">
         <v>23</v>
       </c>
-      <c r="C268">
+      <c r="D268">
         <v>12169</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
+        <v>2020</v>
+      </c>
+      <c r="B269">
         <v>9</v>
       </c>
-      <c r="B269">
+      <c r="C269">
         <v>24</v>
       </c>
-      <c r="C269">
+      <c r="D269">
         <v>7113</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
+        <v>2020</v>
+      </c>
+      <c r="B270">
         <v>9</v>
       </c>
-      <c r="B270">
+      <c r="C270">
         <v>25</v>
       </c>
-      <c r="C270">
+      <c r="D270">
         <v>6476</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
+        <v>2020</v>
+      </c>
+      <c r="B271">
         <v>9</v>
       </c>
-      <c r="B271">
+      <c r="C271">
         <v>26</v>
       </c>
-      <c r="C271">
+      <c r="D271">
         <v>13380</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
+        <v>2020</v>
+      </c>
+      <c r="B272">
         <v>9</v>
       </c>
-      <c r="B272">
+      <c r="C272">
         <v>27</v>
       </c>
-      <c r="C272">
+      <c r="D272">
         <v>8101</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
+        <v>2020</v>
+      </c>
+      <c r="B273">
         <v>9</v>
       </c>
-      <c r="B273">
+      <c r="C273">
         <v>28</v>
       </c>
-      <c r="C273">
+      <c r="D273">
         <v>8505</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
+        <v>2020</v>
+      </c>
+      <c r="B274">
         <v>9</v>
       </c>
-      <c r="B274">
+      <c r="C274">
         <v>29</v>
       </c>
-      <c r="C274">
+      <c r="D274">
         <v>8382</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
+        <v>2020</v>
+      </c>
+      <c r="B275">
         <v>9</v>
       </c>
-      <c r="B275">
+      <c r="C275">
         <v>30</v>
       </c>
-      <c r="C275">
+      <c r="D275">
         <v>12588</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
+        <v>2020</v>
+      </c>
+      <c r="B276">
         <v>10</v>
       </c>
-      <c r="B276">
+      <c r="C276">
         <v>1</v>
       </c>
-      <c r="C276">
+      <c r="D276">
         <v>10620</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
+        <v>2020</v>
+      </c>
+      <c r="B277">
         <v>10</v>
       </c>
-      <c r="B277">
+      <c r="C277">
         <v>2</v>
       </c>
-      <c r="C277">
+      <c r="D277">
         <v>6419</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
+        <v>2020</v>
+      </c>
+      <c r="B278">
         <v>10</v>
       </c>
-      <c r="B278">
+      <c r="C278">
         <v>3</v>
       </c>
-      <c r="C278">
+      <c r="D278">
         <v>8534</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
+        <v>2020</v>
+      </c>
+      <c r="B279">
         <v>10</v>
       </c>
-      <c r="B279">
+      <c r="C279">
         <v>4</v>
       </c>
-      <c r="C279">
+      <c r="D279">
         <v>9194</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
+        <v>2020</v>
+      </c>
+      <c r="B280">
         <v>10</v>
       </c>
-      <c r="B280">
+      <c r="C280">
         <v>5</v>
       </c>
-      <c r="C280">
+      <c r="D280">
         <v>4731</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
+        <v>2020</v>
+      </c>
+      <c r="B281">
         <v>10</v>
       </c>
-      <c r="B281">
+      <c r="C281">
         <v>6</v>
       </c>
-      <c r="C281">
+      <c r="D281">
         <v>12483</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
+        <v>2020</v>
+      </c>
+      <c r="B282">
         <v>10</v>
       </c>
-      <c r="B282">
+      <c r="C282">
         <v>7</v>
       </c>
-      <c r="C282">
+      <c r="D282">
         <v>11896</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
+        <v>2020</v>
+      </c>
+      <c r="B283">
         <v>10</v>
       </c>
-      <c r="B283">
+      <c r="C283">
         <v>8</v>
       </c>
-      <c r="C283">
+      <c r="D283">
         <v>7467</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
+        <v>2020</v>
+      </c>
+      <c r="B284">
         <v>10</v>
       </c>
-      <c r="B284">
+      <c r="C284">
         <v>9</v>
       </c>
-      <c r="C284">
+      <c r="D284">
         <v>6328</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>10</v>
+        <v>2020</v>
       </c>
       <c r="B285">
         <v>10</v>
       </c>
       <c r="C285">
+        <v>10</v>
+      </c>
+      <c r="D285">
         <v>12917</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
+        <v>2020</v>
+      </c>
+      <c r="B286">
         <v>10</v>
       </c>
-      <c r="B286">
+      <c r="C286">
         <v>11</v>
       </c>
-      <c r="C286">
+      <c r="D286">
         <v>24040</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
+        <v>2020</v>
+      </c>
+      <c r="B287">
         <v>10</v>
       </c>
-      <c r="B287">
+      <c r="C287">
         <v>12</v>
       </c>
-      <c r="C287">
+      <c r="D287">
         <v>8265</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
+        <v>2020</v>
+      </c>
+      <c r="B288">
         <v>10</v>
       </c>
-      <c r="B288">
+      <c r="C288">
         <v>13</v>
       </c>
-      <c r="C288">
+      <c r="D288">
         <v>14120</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
+        <v>2020</v>
+      </c>
+      <c r="B289">
         <v>10</v>
       </c>
-      <c r="B289">
+      <c r="C289">
         <v>14</v>
       </c>
-      <c r="C289">
+      <c r="D289">
         <v>9095</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
+        <v>2020</v>
+      </c>
+      <c r="B290">
         <v>10</v>
       </c>
-      <c r="B290">
+      <c r="C290">
         <v>15</v>
       </c>
-      <c r="C290">
+      <c r="D290">
         <v>9106</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
+        <v>2020</v>
+      </c>
+      <c r="B291">
         <v>10</v>
       </c>
-      <c r="B291">
+      <c r="C291">
         <v>16</v>
       </c>
-      <c r="C291">
+      <c r="D291">
         <v>8147</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
+        <v>2020</v>
+      </c>
+      <c r="B292">
         <v>10</v>
       </c>
-      <c r="B292">
+      <c r="C292">
         <v>17</v>
       </c>
-      <c r="C292">
+      <c r="D292">
         <v>4878</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
+        <v>2020</v>
+      </c>
+      <c r="B293">
         <v>10</v>
       </c>
-      <c r="B293">
+      <c r="C293">
         <v>18</v>
       </c>
-      <c r="C293">
+      <c r="D293">
         <v>10647</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
+        <v>2020</v>
+      </c>
+      <c r="B294">
         <v>10</v>
       </c>
-      <c r="B294">
+      <c r="C294">
         <v>19</v>
       </c>
-      <c r="C294">
+      <c r="D294">
         <v>10532</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
+        <v>2020</v>
+      </c>
+      <c r="B295">
         <v>10</v>
       </c>
-      <c r="B295">
+      <c r="C295">
         <v>20</v>
       </c>
-      <c r="C295">
+      <c r="D295">
         <v>11974</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
+        <v>2020</v>
+      </c>
+      <c r="B296">
         <v>10</v>
       </c>
-      <c r="B296">
+      <c r="C296">
         <v>21</v>
       </c>
-      <c r="C296">
+      <c r="D296">
         <v>11636</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
+        <v>2020</v>
+      </c>
+      <c r="B297">
         <v>10</v>
       </c>
-      <c r="B297">
+      <c r="C297">
         <v>22</v>
       </c>
-      <c r="C297">
+      <c r="D297">
         <v>8574</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
+        <v>2020</v>
+      </c>
+      <c r="B298">
         <v>10</v>
       </c>
-      <c r="B298">
+      <c r="C298">
         <v>23</v>
       </c>
-      <c r="C298">
+      <c r="D298">
         <v>8021</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
+        <v>2020</v>
+      </c>
+      <c r="B299">
         <v>10</v>
       </c>
-      <c r="B299">
+      <c r="C299">
         <v>24</v>
       </c>
-      <c r="C299">
+      <c r="D299">
         <v>23321</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
+        <v>2020</v>
+      </c>
+      <c r="B300">
         <v>10</v>
       </c>
-      <c r="B300">
+      <c r="C300">
         <v>25</v>
       </c>
-      <c r="C300">
+      <c r="D300">
         <v>8304</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
+        <v>2020</v>
+      </c>
+      <c r="B301">
         <v>10</v>
       </c>
-      <c r="B301">
+      <c r="C301">
         <v>26</v>
       </c>
-      <c r="C301">
+      <c r="D301">
         <v>7951</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
+        <v>2020</v>
+      </c>
+      <c r="B302">
         <v>10</v>
       </c>
-      <c r="B302">
+      <c r="C302">
         <v>27</v>
       </c>
-      <c r="C302">
+      <c r="D302">
         <v>7310</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
+        <v>2020</v>
+      </c>
+      <c r="B303">
         <v>10</v>
       </c>
-      <c r="B303">
+      <c r="C303">
         <v>28</v>
       </c>
-      <c r="C303">
+      <c r="D303">
         <v>9667</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
+        <v>2020</v>
+      </c>
+      <c r="B304">
         <v>10</v>
       </c>
-      <c r="B304">
+      <c r="C304">
         <v>29</v>
       </c>
-      <c r="C304">
+      <c r="D304">
         <v>4133</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
+        <v>2020</v>
+      </c>
+      <c r="B305">
         <v>10</v>
       </c>
-      <c r="B305">
+      <c r="C305">
         <v>30</v>
       </c>
-      <c r="C305">
+      <c r="D305">
         <v>7101</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
+        <v>2020</v>
+      </c>
+      <c r="B306">
         <v>10</v>
       </c>
-      <c r="B306">
+      <c r="C306">
         <v>31</v>
       </c>
-      <c r="C306">
+      <c r="D306">
         <v>11647</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
+        <v>2020</v>
+      </c>
+      <c r="B307">
         <v>11</v>
       </c>
-      <c r="B307">
+      <c r="C307">
         <v>1</v>
       </c>
-      <c r="C307">
+      <c r="D307">
         <v>6351</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
+        <v>2020</v>
+      </c>
+      <c r="B308">
         <v>11</v>
       </c>
-      <c r="B308">
+      <c r="C308">
         <v>2</v>
       </c>
-      <c r="C308">
+      <c r="D308">
         <v>8196</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
+        <v>2020</v>
+      </c>
+      <c r="B309">
         <v>11</v>
       </c>
-      <c r="B309">
+      <c r="C309">
         <v>3</v>
       </c>
-      <c r="C309">
+      <c r="D309">
         <v>7411</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
+        <v>2020</v>
+      </c>
+      <c r="B310">
         <v>11</v>
       </c>
-      <c r="B310">
+      <c r="C310">
         <v>4</v>
       </c>
-      <c r="C310">
+      <c r="D310">
         <v>6227</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
+        <v>2020</v>
+      </c>
+      <c r="B311">
         <v>11</v>
       </c>
-      <c r="B311">
+      <c r="C311">
         <v>5</v>
       </c>
-      <c r="C311">
+      <c r="D311">
         <v>10691</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
+        <v>2020</v>
+      </c>
+      <c r="B312">
         <v>11</v>
       </c>
-      <c r="B312">
+      <c r="C312">
         <v>6</v>
       </c>
-      <c r="C312">
+      <c r="D312">
         <v>7915</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
+        <v>2020</v>
+      </c>
+      <c r="B313">
         <v>11</v>
       </c>
-      <c r="B313">
+      <c r="C313">
         <v>7</v>
       </c>
-      <c r="C313">
+      <c r="D313">
         <v>8159</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
+        <v>2020</v>
+      </c>
+      <c r="B314">
         <v>11</v>
       </c>
-      <c r="B314">
+      <c r="C314">
         <v>8</v>
       </c>
-      <c r="C314">
+      <c r="D314">
         <v>8632</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
+        <v>2020</v>
+      </c>
+      <c r="B315">
         <v>11</v>
       </c>
-      <c r="B315">
+      <c r="C315">
         <v>9</v>
       </c>
-      <c r="C315">
+      <c r="D315">
         <v>9331</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
+        <v>2020</v>
+      </c>
+      <c r="B316">
         <v>11</v>
       </c>
-      <c r="B316">
+      <c r="C316">
         <v>10</v>
       </c>
-      <c r="C316">
+      <c r="D316">
         <v>11684</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>11</v>
+        <v>2020</v>
       </c>
       <c r="B317">
         <v>11</v>
       </c>
       <c r="C317">
+        <v>11</v>
+      </c>
+      <c r="D317">
         <v>5680</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
+        <v>2020</v>
+      </c>
+      <c r="B318">
         <v>11</v>
       </c>
-      <c r="B318">
+      <c r="C318">
         <v>12</v>
       </c>
-      <c r="C318">
+      <c r="D318">
         <v>10813</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
+        <v>2020</v>
+      </c>
+      <c r="B319">
         <v>11</v>
       </c>
-      <c r="B319">
+      <c r="C319">
         <v>13</v>
       </c>
-      <c r="C319">
+      <c r="D319">
         <v>30622</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
+        <v>2020</v>
+      </c>
+      <c r="B320">
         <v>11</v>
       </c>
-      <c r="B320">
+      <c r="C320">
         <v>14</v>
       </c>
-      <c r="C320">
+      <c r="D320">
         <v>12229</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
+        <v>2020</v>
+      </c>
+      <c r="B321">
         <v>11</v>
       </c>
-      <c r="B321">
+      <c r="C321">
         <v>15</v>
       </c>
-      <c r="C321">
+      <c r="D321">
         <v>18612</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
+        <v>2020</v>
+      </c>
+      <c r="B322">
         <v>11</v>
       </c>
-      <c r="B322">
+      <c r="C322">
         <v>16</v>
       </c>
-      <c r="C322">
+      <c r="D322">
         <v>8605</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
+        <v>2020</v>
+      </c>
+      <c r="B323">
         <v>11</v>
       </c>
-      <c r="B323">
+      <c r="C323">
         <v>17</v>
       </c>
-      <c r="C323">
+      <c r="D323">
         <v>8633</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
+        <v>2020</v>
+      </c>
+      <c r="B324">
         <v>11</v>
       </c>
-      <c r="B324">
+      <c r="C324">
         <v>18</v>
       </c>
-      <c r="C324">
+      <c r="D324">
         <v>8494</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
+        <v>2020</v>
+      </c>
+      <c r="B325">
         <v>11</v>
       </c>
-      <c r="B325">
+      <c r="C325">
         <v>19</v>
       </c>
-      <c r="C325">
+      <c r="D325">
         <v>15942</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
+        <v>2020</v>
+      </c>
+      <c r="B326">
         <v>11</v>
       </c>
-      <c r="B326">
+      <c r="C326">
         <v>20</v>
       </c>
-      <c r="C326">
+      <c r="D326">
         <v>14257</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
+        <v>2020</v>
+      </c>
+      <c r="B327">
         <v>11</v>
       </c>
-      <c r="B327">
+      <c r="C327">
         <v>21</v>
       </c>
-      <c r="C327">
+      <c r="D327">
         <v>36558</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
+        <v>2020</v>
+      </c>
+      <c r="B328">
         <v>11</v>
       </c>
-      <c r="B328">
+      <c r="C328">
         <v>22</v>
       </c>
-      <c r="C328">
+      <c r="D328">
         <v>13101</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
+        <v>2020</v>
+      </c>
+      <c r="B329">
         <v>11</v>
       </c>
-      <c r="B329">
+      <c r="C329">
         <v>23</v>
       </c>
-      <c r="C329">
+      <c r="D329">
         <v>16089</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
+        <v>2020</v>
+      </c>
+      <c r="B330">
         <v>11</v>
       </c>
-      <c r="B330">
+      <c r="C330">
         <v>24</v>
       </c>
-      <c r="C330">
+      <c r="D330">
         <v>9882</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
+        <v>2020</v>
+      </c>
+      <c r="B331">
         <v>11</v>
       </c>
-      <c r="B331">
+      <c r="C331">
         <v>25</v>
       </c>
-      <c r="C331">
+      <c r="D331">
         <v>11480</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
+        <v>2020</v>
+      </c>
+      <c r="B332">
         <v>11</v>
       </c>
-      <c r="B332">
+      <c r="C332">
         <v>26</v>
       </c>
-      <c r="C332">
+      <c r="D332">
         <v>6790</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
+        <v>2020</v>
+      </c>
+      <c r="B333">
         <v>11</v>
       </c>
-      <c r="B333">
+      <c r="C333">
         <v>27</v>
       </c>
-      <c r="C333">
+      <c r="D333">
         <v>9443</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
+        <v>2020</v>
+      </c>
+      <c r="B334">
         <v>11</v>
       </c>
-      <c r="B334">
+      <c r="C334">
         <v>28</v>
       </c>
-      <c r="C334">
+      <c r="D334">
         <v>3965</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
+        <v>2020</v>
+      </c>
+      <c r="B335">
         <v>11</v>
       </c>
-      <c r="B335">
+      <c r="C335">
         <v>29</v>
       </c>
-      <c r="C335">
+      <c r="D335">
         <v>9321</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
+        <v>2020</v>
+      </c>
+      <c r="B336">
         <v>11</v>
       </c>
-      <c r="B336">
+      <c r="C336">
         <v>30</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D336">
+        <v>7495</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337">
+        <v>2020</v>
+      </c>
+      <c r="B337">
         <v>12</v>
       </c>
-      <c r="B337">
+      <c r="C337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D337">
+        <v>8898</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338">
+        <v>2020</v>
+      </c>
+      <c r="B338">
         <v>12</v>
       </c>
-      <c r="B338">
+      <c r="C338">
         <v>2</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D338">
+        <v>9091</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339">
+        <v>2020</v>
+      </c>
+      <c r="B339">
         <v>12</v>
       </c>
-      <c r="B339">
+      <c r="C339">
         <v>3</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D339">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340">
+        <v>2020</v>
+      </c>
+      <c r="B340">
         <v>12</v>
       </c>
-      <c r="B340">
+      <c r="C340">
         <v>4</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D340">
+        <v>6910</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341">
+        <v>2020</v>
+      </c>
+      <c r="B341">
         <v>12</v>
       </c>
-      <c r="B341">
+      <c r="C341">
         <v>5</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D341">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342">
+        <v>2020</v>
+      </c>
+      <c r="B342">
         <v>12</v>
       </c>
-      <c r="B342">
+      <c r="C342">
         <v>6</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D342">
+        <v>10140</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343">
+        <v>2020</v>
+      </c>
+      <c r="B343">
         <v>12</v>
       </c>
-      <c r="B343">
+      <c r="C343">
         <v>7</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D343">
+        <v>5303</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344">
+        <v>2020</v>
+      </c>
+      <c r="B344">
         <v>12</v>
       </c>
-      <c r="B344">
+      <c r="C344">
         <v>8</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D344">
+        <v>9003</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345">
+        <v>2020</v>
+      </c>
+      <c r="B345">
         <v>12</v>
       </c>
-      <c r="B345">
+      <c r="C345">
         <v>9</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D345">
+        <v>8056</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346">
+        <v>2020</v>
+      </c>
+      <c r="B346">
         <v>12</v>
       </c>
-      <c r="B346">
+      <c r="C346">
         <v>10</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D346">
+        <v>7983</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347">
+        <v>2020</v>
+      </c>
+      <c r="B347">
         <v>12</v>
       </c>
-      <c r="B347">
+      <c r="C347">
         <v>11</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D347">
+        <v>9733</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>12</v>
+        <v>2020</v>
       </c>
       <c r="B348">
         <v>12</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C348">
+        <v>12</v>
+      </c>
+      <c r="D348">
+        <v>12953</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349">
+        <v>2020</v>
+      </c>
+      <c r="B349">
         <v>12</v>
       </c>
-      <c r="B349">
+      <c r="C349">
         <v>13</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D349">
+        <v>13831</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350">
+        <v>2020</v>
+      </c>
+      <c r="B350">
         <v>12</v>
       </c>
-      <c r="B350">
+      <c r="C350">
         <v>14</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D350">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351">
+        <v>2020</v>
+      </c>
+      <c r="B351">
         <v>12</v>
       </c>
-      <c r="B351">
+      <c r="C351">
         <v>15</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D351">
+        <v>8873</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352">
+        <v>2020</v>
+      </c>
+      <c r="B352">
         <v>12</v>
       </c>
-      <c r="B352">
+      <c r="C352">
         <v>16</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D352">
+        <v>8116</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
+        <v>2020</v>
+      </c>
+      <c r="B353">
         <v>12</v>
       </c>
-      <c r="B353">
+      <c r="C353">
         <v>17</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D353">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
+        <v>2020</v>
+      </c>
+      <c r="B354">
         <v>12</v>
       </c>
-      <c r="B354">
+      <c r="C354">
         <v>18</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D354">
+        <v>9334</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
+        <v>2020</v>
+      </c>
+      <c r="B355">
         <v>12</v>
       </c>
-      <c r="B355">
+      <c r="C355">
         <v>19</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D355">
+        <v>11649</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
+        <v>2020</v>
+      </c>
+      <c r="B356">
         <v>12</v>
       </c>
-      <c r="B356">
+      <c r="C356">
         <v>20</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D356">
+        <v>27738</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
+        <v>2020</v>
+      </c>
+      <c r="B357">
         <v>12</v>
       </c>
-      <c r="B357">
+      <c r="C357">
         <v>21</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D357">
+        <v>8813</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
+        <v>2020</v>
+      </c>
+      <c r="B358">
         <v>12</v>
       </c>
-      <c r="B358">
+      <c r="C358">
         <v>22</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D358">
+        <v>10096</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
+        <v>2020</v>
+      </c>
+      <c r="B359">
         <v>12</v>
       </c>
-      <c r="B359">
+      <c r="C359">
         <v>23</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D359">
+        <v>15123</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
+        <v>2020</v>
+      </c>
+      <c r="B360">
         <v>12</v>
       </c>
-      <c r="B360">
+      <c r="C360">
         <v>24</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D360">
+        <v>7705</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
+        <v>2020</v>
+      </c>
+      <c r="B361">
         <v>12</v>
       </c>
-      <c r="B361">
+      <c r="C361">
         <v>25</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D361">
+        <v>9598</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
+        <v>2020</v>
+      </c>
+      <c r="B362">
         <v>12</v>
       </c>
-      <c r="B362">
+      <c r="C362">
         <v>26</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D362">
+        <v>8559</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
+        <v>2020</v>
+      </c>
+      <c r="B363">
         <v>12</v>
       </c>
-      <c r="B363">
+      <c r="C363">
         <v>27</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D363">
+        <v>8135</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
+        <v>2020</v>
+      </c>
+      <c r="B364">
         <v>12</v>
       </c>
-      <c r="B364">
+      <c r="C364">
         <v>28</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D364">
+        <v>8259</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
+        <v>2020</v>
+      </c>
+      <c r="B365">
         <v>12</v>
       </c>
-      <c r="B365">
+      <c r="C365">
         <v>29</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D365">
+        <v>10471</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
+        <v>2020</v>
+      </c>
+      <c r="B366">
         <v>12</v>
       </c>
-      <c r="B366">
+      <c r="C366">
         <v>30</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D366">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
+        <v>2020</v>
+      </c>
+      <c r="B367">
         <v>12</v>
       </c>
-      <c r="B367">
+      <c r="C367">
         <v>31</v>
+      </c>
+      <c r="D367">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>2021</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>10321</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>2021</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>2</v>
+      </c>
+      <c r="D369">
+        <v>10076</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>2021</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>3</v>
+      </c>
+      <c r="D370">
+        <v>8052</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>2021</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>4</v>
+      </c>
+      <c r="D371">
+        <v>10305</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>2021</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>5</v>
+      </c>
+      <c r="D372">
+        <v>10114</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>2021</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>6</v>
+      </c>
+      <c r="D373">
+        <v>10724</v>
       </c>
     </row>
   </sheetData>

--- a/StepData.xlsx
+++ b/StepData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\CountingSteps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD2C8D-B06A-4EF2-8BA5-E8E8A7523CB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145C3B1E-2211-4AA1-89F2-E3C7E0BD01D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{F3AFDF18-1CE2-4C72-BD6C-2152A31A0244}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5CDEC8-326C-496F-8706-81C54FBAE51F}">
-  <dimension ref="A1:J373"/>
+  <dimension ref="A1:J393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="E370" sqref="E370"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="D399" sqref="D399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5637,6 +5637,286 @@
         <v>10724</v>
       </c>
     </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>2021</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>7</v>
+      </c>
+      <c r="D374">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>2021</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>8</v>
+      </c>
+      <c r="D375">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>2021</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>9</v>
+      </c>
+      <c r="D376">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>2021</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>10</v>
+      </c>
+      <c r="D377">
+        <v>9309</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>2021</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>11</v>
+      </c>
+      <c r="D378">
+        <v>8902</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>2021</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>12</v>
+      </c>
+      <c r="D379">
+        <v>8623</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>2021</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>13</v>
+      </c>
+      <c r="D380">
+        <v>8312</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>2021</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
+        <v>14</v>
+      </c>
+      <c r="D381">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>2021</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>15</v>
+      </c>
+      <c r="D382">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>2021</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
+        <v>16</v>
+      </c>
+      <c r="D383">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>2021</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>17</v>
+      </c>
+      <c r="D384">
+        <v>10674</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>2021</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>18</v>
+      </c>
+      <c r="D385">
+        <v>6649</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>2021</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>19</v>
+      </c>
+      <c r="D386">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>2021</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>20</v>
+      </c>
+      <c r="D387">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>2021</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>21</v>
+      </c>
+      <c r="D388">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>2021</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>22</v>
+      </c>
+      <c r="D389">
+        <v>8358</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>2021</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>23</v>
+      </c>
+      <c r="D390">
+        <v>8609</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>2021</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+      <c r="C391">
+        <v>24</v>
+      </c>
+      <c r="D391">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>2021</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>25</v>
+      </c>
+      <c r="D392">
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>2021</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393">
+        <v>26</v>
+      </c>
+      <c r="D393">
+        <v>958</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StepData.xlsx
+++ b/StepData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\CountingSteps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145C3B1E-2211-4AA1-89F2-E3C7E0BD01D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841CC81D-44E3-43E6-8B7D-035566FCBF9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{F3AFDF18-1CE2-4C72-BD6C-2152A31A0244}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5CDEC8-326C-496F-8706-81C54FBAE51F}">
-  <dimension ref="A1:J393"/>
+  <dimension ref="A1:J450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="D399" sqref="D399"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="I451" sqref="I451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5917,6 +5917,804 @@
         <v>958</v>
       </c>
     </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>2021</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>27</v>
+      </c>
+      <c r="D394">
+        <v>8719</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>2021</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>28</v>
+      </c>
+      <c r="D395">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>2021</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>29</v>
+      </c>
+      <c r="D396">
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>2021</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397">
+        <v>30</v>
+      </c>
+      <c r="D397">
+        <v>8047</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>2021</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>31</v>
+      </c>
+      <c r="D398">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>2021</v>
+      </c>
+      <c r="B399">
+        <v>2</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>2021</v>
+      </c>
+      <c r="B400">
+        <v>2</v>
+      </c>
+      <c r="C400">
+        <v>2</v>
+      </c>
+      <c r="D400">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>2021</v>
+      </c>
+      <c r="B401">
+        <v>2</v>
+      </c>
+      <c r="C401">
+        <v>3</v>
+      </c>
+      <c r="D401">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>2021</v>
+      </c>
+      <c r="B402">
+        <v>2</v>
+      </c>
+      <c r="C402">
+        <v>4</v>
+      </c>
+      <c r="D402">
+        <v>9732</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>2021</v>
+      </c>
+      <c r="B403">
+        <v>2</v>
+      </c>
+      <c r="C403">
+        <v>5</v>
+      </c>
+      <c r="D403">
+        <v>8992</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>2021</v>
+      </c>
+      <c r="B404">
+        <v>2</v>
+      </c>
+      <c r="C404">
+        <v>6</v>
+      </c>
+      <c r="D404">
+        <v>10167</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>2021</v>
+      </c>
+      <c r="B405">
+        <v>2</v>
+      </c>
+      <c r="C405">
+        <v>7</v>
+      </c>
+      <c r="D405">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>2021</v>
+      </c>
+      <c r="B406">
+        <v>2</v>
+      </c>
+      <c r="C406">
+        <v>8</v>
+      </c>
+      <c r="D406">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>2021</v>
+      </c>
+      <c r="B407">
+        <v>2</v>
+      </c>
+      <c r="C407">
+        <v>9</v>
+      </c>
+      <c r="D407">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>2021</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+      <c r="C408">
+        <v>10</v>
+      </c>
+      <c r="D408">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>2021</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="C409">
+        <v>11</v>
+      </c>
+      <c r="D409">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>2021</v>
+      </c>
+      <c r="B410">
+        <v>2</v>
+      </c>
+      <c r="C410">
+        <v>12</v>
+      </c>
+      <c r="D410">
+        <v>6743</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>2021</v>
+      </c>
+      <c r="B411">
+        <v>2</v>
+      </c>
+      <c r="C411">
+        <v>13</v>
+      </c>
+      <c r="D411">
+        <v>10314</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>2021</v>
+      </c>
+      <c r="B412">
+        <v>2</v>
+      </c>
+      <c r="C412">
+        <v>14</v>
+      </c>
+      <c r="D412">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>2021</v>
+      </c>
+      <c r="B413">
+        <v>2</v>
+      </c>
+      <c r="C413">
+        <v>15</v>
+      </c>
+      <c r="D413">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>2021</v>
+      </c>
+      <c r="B414">
+        <v>2</v>
+      </c>
+      <c r="C414">
+        <v>16</v>
+      </c>
+      <c r="D414">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>2021</v>
+      </c>
+      <c r="B415">
+        <v>2</v>
+      </c>
+      <c r="C415">
+        <v>17</v>
+      </c>
+      <c r="D415">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>2021</v>
+      </c>
+      <c r="B416">
+        <v>2</v>
+      </c>
+      <c r="C416">
+        <v>18</v>
+      </c>
+      <c r="D416">
+        <v>9617</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>2021</v>
+      </c>
+      <c r="B417">
+        <v>2</v>
+      </c>
+      <c r="C417">
+        <v>19</v>
+      </c>
+      <c r="D417">
+        <v>8030</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>2021</v>
+      </c>
+      <c r="B418">
+        <v>2</v>
+      </c>
+      <c r="C418">
+        <v>20</v>
+      </c>
+      <c r="D418">
+        <v>9787</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>2021</v>
+      </c>
+      <c r="B419">
+        <v>2</v>
+      </c>
+      <c r="C419">
+        <v>21</v>
+      </c>
+      <c r="D419">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>2021</v>
+      </c>
+      <c r="B420">
+        <v>2</v>
+      </c>
+      <c r="C420">
+        <v>22</v>
+      </c>
+      <c r="D420">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>2021</v>
+      </c>
+      <c r="B421">
+        <v>2</v>
+      </c>
+      <c r="C421">
+        <v>23</v>
+      </c>
+      <c r="D421">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>2021</v>
+      </c>
+      <c r="B422">
+        <v>2</v>
+      </c>
+      <c r="C422">
+        <v>24</v>
+      </c>
+      <c r="D422">
+        <v>10660</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>2021</v>
+      </c>
+      <c r="B423">
+        <v>2</v>
+      </c>
+      <c r="C423">
+        <v>25</v>
+      </c>
+      <c r="D423">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>2021</v>
+      </c>
+      <c r="B424">
+        <v>2</v>
+      </c>
+      <c r="C424">
+        <v>26</v>
+      </c>
+      <c r="D424">
+        <v>6294</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>2021</v>
+      </c>
+      <c r="B425">
+        <v>2</v>
+      </c>
+      <c r="C425">
+        <v>27</v>
+      </c>
+      <c r="D425">
+        <v>8385</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>2021</v>
+      </c>
+      <c r="B426">
+        <v>2</v>
+      </c>
+      <c r="C426">
+        <v>28</v>
+      </c>
+      <c r="D426">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>2021</v>
+      </c>
+      <c r="B427">
+        <v>3</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>2021</v>
+      </c>
+      <c r="B428">
+        <v>3</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428">
+        <v>8228</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>2021</v>
+      </c>
+      <c r="B429">
+        <v>3</v>
+      </c>
+      <c r="C429">
+        <v>3</v>
+      </c>
+      <c r="D429">
+        <v>9901</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>2021</v>
+      </c>
+      <c r="B430">
+        <v>3</v>
+      </c>
+      <c r="C430">
+        <v>4</v>
+      </c>
+      <c r="D430">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>2021</v>
+      </c>
+      <c r="B431">
+        <v>3</v>
+      </c>
+      <c r="C431">
+        <v>5</v>
+      </c>
+      <c r="D431">
+        <v>8685</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>2021</v>
+      </c>
+      <c r="B432">
+        <v>3</v>
+      </c>
+      <c r="C432">
+        <v>6</v>
+      </c>
+      <c r="D432">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>2021</v>
+      </c>
+      <c r="B433">
+        <v>3</v>
+      </c>
+      <c r="C433">
+        <v>7</v>
+      </c>
+      <c r="D433">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>2021</v>
+      </c>
+      <c r="B434">
+        <v>3</v>
+      </c>
+      <c r="C434">
+        <v>8</v>
+      </c>
+      <c r="D434">
+        <v>9009</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>2021</v>
+      </c>
+      <c r="B435">
+        <v>3</v>
+      </c>
+      <c r="C435">
+        <v>9</v>
+      </c>
+      <c r="D435">
+        <v>8239</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>2021</v>
+      </c>
+      <c r="B436">
+        <v>3</v>
+      </c>
+      <c r="C436">
+        <v>10</v>
+      </c>
+      <c r="D436">
+        <v>9247</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>2021</v>
+      </c>
+      <c r="B437">
+        <v>3</v>
+      </c>
+      <c r="C437">
+        <v>11</v>
+      </c>
+      <c r="D437">
+        <v>8973</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>2021</v>
+      </c>
+      <c r="B438">
+        <v>3</v>
+      </c>
+      <c r="C438">
+        <v>12</v>
+      </c>
+      <c r="D438">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>2021</v>
+      </c>
+      <c r="B439">
+        <v>3</v>
+      </c>
+      <c r="C439">
+        <v>13</v>
+      </c>
+      <c r="D439">
+        <v>7815</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>2021</v>
+      </c>
+      <c r="B440">
+        <v>3</v>
+      </c>
+      <c r="C440">
+        <v>14</v>
+      </c>
+      <c r="D440">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>2021</v>
+      </c>
+      <c r="B441">
+        <v>3</v>
+      </c>
+      <c r="C441">
+        <v>15</v>
+      </c>
+      <c r="D441">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>2021</v>
+      </c>
+      <c r="B442">
+        <v>3</v>
+      </c>
+      <c r="C442">
+        <v>16</v>
+      </c>
+      <c r="D442">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>2021</v>
+      </c>
+      <c r="B443">
+        <v>3</v>
+      </c>
+      <c r="C443">
+        <v>17</v>
+      </c>
+      <c r="D443">
+        <v>7281</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>2021</v>
+      </c>
+      <c r="B444">
+        <v>3</v>
+      </c>
+      <c r="C444">
+        <v>18</v>
+      </c>
+      <c r="D444">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>2021</v>
+      </c>
+      <c r="B445">
+        <v>3</v>
+      </c>
+      <c r="C445">
+        <v>19</v>
+      </c>
+      <c r="D445">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>2021</v>
+      </c>
+      <c r="B446">
+        <v>3</v>
+      </c>
+      <c r="C446">
+        <v>20</v>
+      </c>
+      <c r="D446">
+        <v>6251</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>2021</v>
+      </c>
+      <c r="B447">
+        <v>3</v>
+      </c>
+      <c r="C447">
+        <v>21</v>
+      </c>
+      <c r="D447">
+        <v>15173</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>2021</v>
+      </c>
+      <c r="B448">
+        <v>3</v>
+      </c>
+      <c r="C448">
+        <v>22</v>
+      </c>
+      <c r="D448">
+        <v>10229</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>2021</v>
+      </c>
+      <c r="B449">
+        <v>3</v>
+      </c>
+      <c r="C449">
+        <v>23</v>
+      </c>
+      <c r="D449">
+        <v>8899</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>2021</v>
+      </c>
+      <c r="B450">
+        <v>3</v>
+      </c>
+      <c r="C450">
+        <v>24</v>
+      </c>
+      <c r="D450">
+        <v>7039</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StepData.xlsx
+++ b/StepData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\CountingSteps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841CC81D-44E3-43E6-8B7D-035566FCBF9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9296AA47-F2A0-4FEC-A7B9-904DB7F76612}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{F3AFDF18-1CE2-4C72-BD6C-2152A31A0244}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5CDEC8-326C-496F-8706-81C54FBAE51F}">
-  <dimension ref="A1:J450"/>
+  <dimension ref="A1:J610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="I451" sqref="I451"/>
+    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
+      <selection activeCell="D368" sqref="D368:D503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6715,6 +6715,1925 @@
         <v>7039</v>
       </c>
     </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>2021</v>
+      </c>
+      <c r="B451">
+        <v>3</v>
+      </c>
+      <c r="C451">
+        <v>25</v>
+      </c>
+      <c r="D451">
+        <v>7568</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>2021</v>
+      </c>
+      <c r="B452">
+        <v>3</v>
+      </c>
+      <c r="C452">
+        <v>26</v>
+      </c>
+      <c r="D452">
+        <v>9145</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>2021</v>
+      </c>
+      <c r="B453">
+        <v>3</v>
+      </c>
+      <c r="C453">
+        <v>27</v>
+      </c>
+      <c r="D453">
+        <v>9911</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>2021</v>
+      </c>
+      <c r="B454">
+        <v>3</v>
+      </c>
+      <c r="C454">
+        <v>28</v>
+      </c>
+      <c r="D454">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>2021</v>
+      </c>
+      <c r="B455">
+        <v>3</v>
+      </c>
+      <c r="C455">
+        <v>29</v>
+      </c>
+      <c r="D455">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>2021</v>
+      </c>
+      <c r="B456">
+        <v>3</v>
+      </c>
+      <c r="C456">
+        <v>30</v>
+      </c>
+      <c r="D456">
+        <v>8703</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>2021</v>
+      </c>
+      <c r="B457">
+        <v>3</v>
+      </c>
+      <c r="C457">
+        <v>31</v>
+      </c>
+      <c r="D457">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>2021</v>
+      </c>
+      <c r="B458">
+        <v>4</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>2021</v>
+      </c>
+      <c r="B459">
+        <v>4</v>
+      </c>
+      <c r="C459">
+        <v>2</v>
+      </c>
+      <c r="D459">
+        <v>7825</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>2021</v>
+      </c>
+      <c r="B460">
+        <v>4</v>
+      </c>
+      <c r="C460">
+        <v>3</v>
+      </c>
+      <c r="D460">
+        <v>11345</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>2021</v>
+      </c>
+      <c r="B461">
+        <v>4</v>
+      </c>
+      <c r="C461">
+        <v>4</v>
+      </c>
+      <c r="D461">
+        <v>17762</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>2021</v>
+      </c>
+      <c r="B462">
+        <v>4</v>
+      </c>
+      <c r="C462">
+        <v>5</v>
+      </c>
+      <c r="D462">
+        <v>8196</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>2021</v>
+      </c>
+      <c r="B463">
+        <v>4</v>
+      </c>
+      <c r="C463">
+        <v>6</v>
+      </c>
+      <c r="D463">
+        <v>9709</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>2021</v>
+      </c>
+      <c r="B464">
+        <v>4</v>
+      </c>
+      <c r="C464">
+        <v>7</v>
+      </c>
+      <c r="D464">
+        <v>8181</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>2021</v>
+      </c>
+      <c r="B465">
+        <v>4</v>
+      </c>
+      <c r="C465">
+        <v>8</v>
+      </c>
+      <c r="D465">
+        <v>7997</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>2021</v>
+      </c>
+      <c r="B466">
+        <v>4</v>
+      </c>
+      <c r="C466">
+        <v>9</v>
+      </c>
+      <c r="D466">
+        <v>9081</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>2021</v>
+      </c>
+      <c r="B467">
+        <v>4</v>
+      </c>
+      <c r="C467">
+        <v>10</v>
+      </c>
+      <c r="D467">
+        <v>8798</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>2021</v>
+      </c>
+      <c r="B468">
+        <v>4</v>
+      </c>
+      <c r="C468">
+        <v>11</v>
+      </c>
+      <c r="D468">
+        <v>9481</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>2021</v>
+      </c>
+      <c r="B469">
+        <v>4</v>
+      </c>
+      <c r="C469">
+        <v>12</v>
+      </c>
+      <c r="D469">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>2021</v>
+      </c>
+      <c r="B470">
+        <v>4</v>
+      </c>
+      <c r="C470">
+        <v>13</v>
+      </c>
+      <c r="D470">
+        <v>6664</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>2021</v>
+      </c>
+      <c r="B471">
+        <v>4</v>
+      </c>
+      <c r="C471">
+        <v>14</v>
+      </c>
+      <c r="D471">
+        <v>10229</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>2021</v>
+      </c>
+      <c r="B472">
+        <v>4</v>
+      </c>
+      <c r="C472">
+        <v>15</v>
+      </c>
+      <c r="D472">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>2021</v>
+      </c>
+      <c r="B473">
+        <v>4</v>
+      </c>
+      <c r="C473">
+        <v>16</v>
+      </c>
+      <c r="D473">
+        <v>8627</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>2021</v>
+      </c>
+      <c r="B474">
+        <v>4</v>
+      </c>
+      <c r="C474">
+        <v>17</v>
+      </c>
+      <c r="D474">
+        <v>14379</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>2021</v>
+      </c>
+      <c r="B475">
+        <v>4</v>
+      </c>
+      <c r="C475">
+        <v>18</v>
+      </c>
+      <c r="D475">
+        <v>8185</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>2021</v>
+      </c>
+      <c r="B476">
+        <v>4</v>
+      </c>
+      <c r="C476">
+        <v>19</v>
+      </c>
+      <c r="D476">
+        <v>10302</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>2021</v>
+      </c>
+      <c r="B477">
+        <v>4</v>
+      </c>
+      <c r="C477">
+        <v>20</v>
+      </c>
+      <c r="D477">
+        <v>9734</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>2021</v>
+      </c>
+      <c r="B478">
+        <v>4</v>
+      </c>
+      <c r="C478">
+        <v>21</v>
+      </c>
+      <c r="D478">
+        <v>22921</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>2021</v>
+      </c>
+      <c r="B479">
+        <v>4</v>
+      </c>
+      <c r="C479">
+        <v>22</v>
+      </c>
+      <c r="D479">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>2021</v>
+      </c>
+      <c r="B480">
+        <v>4</v>
+      </c>
+      <c r="C480">
+        <v>23</v>
+      </c>
+      <c r="D480">
+        <v>4781</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>2021</v>
+      </c>
+      <c r="B481">
+        <v>4</v>
+      </c>
+      <c r="C481">
+        <v>24</v>
+      </c>
+      <c r="D481">
+        <v>9904</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>2021</v>
+      </c>
+      <c r="B482">
+        <v>4</v>
+      </c>
+      <c r="C482">
+        <v>25</v>
+      </c>
+      <c r="D482">
+        <v>12599</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>2021</v>
+      </c>
+      <c r="B483">
+        <v>4</v>
+      </c>
+      <c r="C483">
+        <v>26</v>
+      </c>
+      <c r="D483">
+        <v>11674</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>2021</v>
+      </c>
+      <c r="B484">
+        <v>4</v>
+      </c>
+      <c r="C484">
+        <v>27</v>
+      </c>
+      <c r="D484">
+        <v>8207</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>2021</v>
+      </c>
+      <c r="B485">
+        <v>4</v>
+      </c>
+      <c r="C485">
+        <v>28</v>
+      </c>
+      <c r="D485">
+        <v>8052</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>2021</v>
+      </c>
+      <c r="B486">
+        <v>4</v>
+      </c>
+      <c r="C486">
+        <v>29</v>
+      </c>
+      <c r="D486">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>2021</v>
+      </c>
+      <c r="B487">
+        <v>4</v>
+      </c>
+      <c r="C487">
+        <v>30</v>
+      </c>
+      <c r="D487">
+        <v>7648</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>2021</v>
+      </c>
+      <c r="B488">
+        <v>5</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488">
+        <v>8043</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>2021</v>
+      </c>
+      <c r="B489">
+        <v>5</v>
+      </c>
+      <c r="C489">
+        <v>2</v>
+      </c>
+      <c r="D489">
+        <v>14929</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>2021</v>
+      </c>
+      <c r="B490">
+        <v>5</v>
+      </c>
+      <c r="C490">
+        <v>3</v>
+      </c>
+      <c r="D490">
+        <v>11060</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>2021</v>
+      </c>
+      <c r="B491">
+        <v>5</v>
+      </c>
+      <c r="C491">
+        <v>4</v>
+      </c>
+      <c r="D491">
+        <v>9812</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>2021</v>
+      </c>
+      <c r="B492">
+        <v>5</v>
+      </c>
+      <c r="C492">
+        <v>5</v>
+      </c>
+      <c r="D492">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>2021</v>
+      </c>
+      <c r="B493">
+        <v>5</v>
+      </c>
+      <c r="C493">
+        <v>6</v>
+      </c>
+      <c r="D493">
+        <v>9037</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>2021</v>
+      </c>
+      <c r="B494">
+        <v>5</v>
+      </c>
+      <c r="C494">
+        <v>7</v>
+      </c>
+      <c r="D494">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>2021</v>
+      </c>
+      <c r="B495">
+        <v>5</v>
+      </c>
+      <c r="C495">
+        <v>8</v>
+      </c>
+      <c r="D495">
+        <v>9607</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>2021</v>
+      </c>
+      <c r="B496">
+        <v>5</v>
+      </c>
+      <c r="C496">
+        <v>9</v>
+      </c>
+      <c r="D496">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>2021</v>
+      </c>
+      <c r="B497">
+        <v>5</v>
+      </c>
+      <c r="C497">
+        <v>10</v>
+      </c>
+      <c r="D497">
+        <v>6939</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>2021</v>
+      </c>
+      <c r="B498">
+        <v>5</v>
+      </c>
+      <c r="C498">
+        <v>11</v>
+      </c>
+      <c r="D498">
+        <v>8747</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>2021</v>
+      </c>
+      <c r="B499">
+        <v>5</v>
+      </c>
+      <c r="C499">
+        <v>12</v>
+      </c>
+      <c r="D499">
+        <v>11106</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>2021</v>
+      </c>
+      <c r="B500">
+        <v>5</v>
+      </c>
+      <c r="C500">
+        <v>13</v>
+      </c>
+      <c r="D500">
+        <v>8999</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>2021</v>
+      </c>
+      <c r="B501">
+        <v>5</v>
+      </c>
+      <c r="C501">
+        <v>14</v>
+      </c>
+      <c r="D501">
+        <v>9766</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>2021</v>
+      </c>
+      <c r="B502">
+        <v>5</v>
+      </c>
+      <c r="C502">
+        <v>15</v>
+      </c>
+      <c r="D502">
+        <v>15931</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>2021</v>
+      </c>
+      <c r="B503">
+        <v>5</v>
+      </c>
+      <c r="C503">
+        <v>16</v>
+      </c>
+      <c r="D503">
+        <v>10754</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>2021</v>
+      </c>
+      <c r="B504">
+        <v>5</v>
+      </c>
+      <c r="C504">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>2021</v>
+      </c>
+      <c r="B505">
+        <v>5</v>
+      </c>
+      <c r="C505">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>2021</v>
+      </c>
+      <c r="B506">
+        <v>5</v>
+      </c>
+      <c r="C506">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>2021</v>
+      </c>
+      <c r="B507">
+        <v>5</v>
+      </c>
+      <c r="C507">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>2021</v>
+      </c>
+      <c r="B508">
+        <v>5</v>
+      </c>
+      <c r="C508">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>2021</v>
+      </c>
+      <c r="B509">
+        <v>5</v>
+      </c>
+      <c r="C509">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>2021</v>
+      </c>
+      <c r="B510">
+        <v>5</v>
+      </c>
+      <c r="C510">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>2021</v>
+      </c>
+      <c r="B511">
+        <v>5</v>
+      </c>
+      <c r="C511">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>2021</v>
+      </c>
+      <c r="B512">
+        <v>5</v>
+      </c>
+      <c r="C512">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>2021</v>
+      </c>
+      <c r="B513">
+        <v>5</v>
+      </c>
+      <c r="C513">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>2021</v>
+      </c>
+      <c r="B514">
+        <v>5</v>
+      </c>
+      <c r="C514">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>2021</v>
+      </c>
+      <c r="B515">
+        <v>5</v>
+      </c>
+      <c r="C515">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>2021</v>
+      </c>
+      <c r="B516">
+        <v>5</v>
+      </c>
+      <c r="C516">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>2021</v>
+      </c>
+      <c r="B517">
+        <v>5</v>
+      </c>
+      <c r="C517">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>2021</v>
+      </c>
+      <c r="B518">
+        <v>5</v>
+      </c>
+      <c r="C518">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>2021</v>
+      </c>
+      <c r="B519">
+        <v>6</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>2021</v>
+      </c>
+      <c r="B520">
+        <v>6</v>
+      </c>
+      <c r="C520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>2021</v>
+      </c>
+      <c r="B521">
+        <v>6</v>
+      </c>
+      <c r="C521">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>2021</v>
+      </c>
+      <c r="B522">
+        <v>6</v>
+      </c>
+      <c r="C522">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>2021</v>
+      </c>
+      <c r="B523">
+        <v>6</v>
+      </c>
+      <c r="C523">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>2021</v>
+      </c>
+      <c r="B524">
+        <v>6</v>
+      </c>
+      <c r="C524">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>2021</v>
+      </c>
+      <c r="B525">
+        <v>6</v>
+      </c>
+      <c r="C525">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>2021</v>
+      </c>
+      <c r="B526">
+        <v>6</v>
+      </c>
+      <c r="C526">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>2021</v>
+      </c>
+      <c r="B527">
+        <v>6</v>
+      </c>
+      <c r="C527">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>2021</v>
+      </c>
+      <c r="B528">
+        <v>6</v>
+      </c>
+      <c r="C528">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>2021</v>
+      </c>
+      <c r="B529">
+        <v>6</v>
+      </c>
+      <c r="C529">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>2021</v>
+      </c>
+      <c r="B530">
+        <v>6</v>
+      </c>
+      <c r="C530">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>2021</v>
+      </c>
+      <c r="B531">
+        <v>6</v>
+      </c>
+      <c r="C531">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>2021</v>
+      </c>
+      <c r="B532">
+        <v>6</v>
+      </c>
+      <c r="C532">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>2021</v>
+      </c>
+      <c r="B533">
+        <v>6</v>
+      </c>
+      <c r="C533">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>2021</v>
+      </c>
+      <c r="B534">
+        <v>6</v>
+      </c>
+      <c r="C534">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>2021</v>
+      </c>
+      <c r="B535">
+        <v>6</v>
+      </c>
+      <c r="C535">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>2021</v>
+      </c>
+      <c r="B536">
+        <v>6</v>
+      </c>
+      <c r="C536">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>2021</v>
+      </c>
+      <c r="B537">
+        <v>6</v>
+      </c>
+      <c r="C537">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>2021</v>
+      </c>
+      <c r="B538">
+        <v>6</v>
+      </c>
+      <c r="C538">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>2021</v>
+      </c>
+      <c r="B539">
+        <v>6</v>
+      </c>
+      <c r="C539">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>2021</v>
+      </c>
+      <c r="B540">
+        <v>6</v>
+      </c>
+      <c r="C540">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>2021</v>
+      </c>
+      <c r="B541">
+        <v>6</v>
+      </c>
+      <c r="C541">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>2021</v>
+      </c>
+      <c r="B542">
+        <v>6</v>
+      </c>
+      <c r="C542">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>2021</v>
+      </c>
+      <c r="B543">
+        <v>6</v>
+      </c>
+      <c r="C543">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>2021</v>
+      </c>
+      <c r="B544">
+        <v>6</v>
+      </c>
+      <c r="C544">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>2021</v>
+      </c>
+      <c r="B545">
+        <v>6</v>
+      </c>
+      <c r="C545">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>2021</v>
+      </c>
+      <c r="B546">
+        <v>6</v>
+      </c>
+      <c r="C546">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>2021</v>
+      </c>
+      <c r="B547">
+        <v>6</v>
+      </c>
+      <c r="C547">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>2021</v>
+      </c>
+      <c r="B548">
+        <v>6</v>
+      </c>
+      <c r="C548">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>2021</v>
+      </c>
+      <c r="B549">
+        <v>7</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>2021</v>
+      </c>
+      <c r="B550">
+        <v>7</v>
+      </c>
+      <c r="C550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>2021</v>
+      </c>
+      <c r="B551">
+        <v>7</v>
+      </c>
+      <c r="C551">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>2021</v>
+      </c>
+      <c r="B552">
+        <v>7</v>
+      </c>
+      <c r="C552">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>2021</v>
+      </c>
+      <c r="B553">
+        <v>7</v>
+      </c>
+      <c r="C553">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>2021</v>
+      </c>
+      <c r="B554">
+        <v>7</v>
+      </c>
+      <c r="C554">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>2021</v>
+      </c>
+      <c r="B555">
+        <v>7</v>
+      </c>
+      <c r="C555">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>2021</v>
+      </c>
+      <c r="B556">
+        <v>7</v>
+      </c>
+      <c r="C556">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>2021</v>
+      </c>
+      <c r="B557">
+        <v>7</v>
+      </c>
+      <c r="C557">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>2021</v>
+      </c>
+      <c r="B558">
+        <v>7</v>
+      </c>
+      <c r="C558">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>2021</v>
+      </c>
+      <c r="B559">
+        <v>7</v>
+      </c>
+      <c r="C559">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>2021</v>
+      </c>
+      <c r="B560">
+        <v>7</v>
+      </c>
+      <c r="C560">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>2021</v>
+      </c>
+      <c r="B561">
+        <v>7</v>
+      </c>
+      <c r="C561">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>2021</v>
+      </c>
+      <c r="B562">
+        <v>7</v>
+      </c>
+      <c r="C562">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>2021</v>
+      </c>
+      <c r="B563">
+        <v>7</v>
+      </c>
+      <c r="C563">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>2021</v>
+      </c>
+      <c r="B564">
+        <v>7</v>
+      </c>
+      <c r="C564">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>2021</v>
+      </c>
+      <c r="B565">
+        <v>7</v>
+      </c>
+      <c r="C565">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>2021</v>
+      </c>
+      <c r="B566">
+        <v>7</v>
+      </c>
+      <c r="C566">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>2021</v>
+      </c>
+      <c r="B567">
+        <v>7</v>
+      </c>
+      <c r="C567">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>2021</v>
+      </c>
+      <c r="B568">
+        <v>7</v>
+      </c>
+      <c r="C568">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>2021</v>
+      </c>
+      <c r="B569">
+        <v>7</v>
+      </c>
+      <c r="C569">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>2021</v>
+      </c>
+      <c r="B570">
+        <v>7</v>
+      </c>
+      <c r="C570">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>2021</v>
+      </c>
+      <c r="B571">
+        <v>7</v>
+      </c>
+      <c r="C571">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>2021</v>
+      </c>
+      <c r="B572">
+        <v>7</v>
+      </c>
+      <c r="C572">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>2021</v>
+      </c>
+      <c r="B573">
+        <v>7</v>
+      </c>
+      <c r="C573">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>2021</v>
+      </c>
+      <c r="B574">
+        <v>7</v>
+      </c>
+      <c r="C574">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>2021</v>
+      </c>
+      <c r="B575">
+        <v>7</v>
+      </c>
+      <c r="C575">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>2021</v>
+      </c>
+      <c r="B576">
+        <v>7</v>
+      </c>
+      <c r="C576">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>2021</v>
+      </c>
+      <c r="B577">
+        <v>7</v>
+      </c>
+      <c r="C577">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>2021</v>
+      </c>
+      <c r="B578">
+        <v>7</v>
+      </c>
+      <c r="C578">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>2021</v>
+      </c>
+      <c r="B579">
+        <v>7</v>
+      </c>
+      <c r="C579">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>2021</v>
+      </c>
+      <c r="B580">
+        <v>8</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>2021</v>
+      </c>
+      <c r="B581">
+        <v>8</v>
+      </c>
+      <c r="C581">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>2021</v>
+      </c>
+      <c r="B582">
+        <v>8</v>
+      </c>
+      <c r="C582">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>2021</v>
+      </c>
+      <c r="B583">
+        <v>8</v>
+      </c>
+      <c r="C583">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>2021</v>
+      </c>
+      <c r="B584">
+        <v>8</v>
+      </c>
+      <c r="C584">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>2021</v>
+      </c>
+      <c r="B585">
+        <v>8</v>
+      </c>
+      <c r="C585">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>2021</v>
+      </c>
+      <c r="B586">
+        <v>8</v>
+      </c>
+      <c r="C586">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>2021</v>
+      </c>
+      <c r="B587">
+        <v>8</v>
+      </c>
+      <c r="C587">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>2021</v>
+      </c>
+      <c r="B588">
+        <v>8</v>
+      </c>
+      <c r="C588">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>2021</v>
+      </c>
+      <c r="B589">
+        <v>8</v>
+      </c>
+      <c r="C589">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>2021</v>
+      </c>
+      <c r="B590">
+        <v>8</v>
+      </c>
+      <c r="C590">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>2021</v>
+      </c>
+      <c r="B591">
+        <v>8</v>
+      </c>
+      <c r="C591">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>2021</v>
+      </c>
+      <c r="B592">
+        <v>8</v>
+      </c>
+      <c r="C592">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>2021</v>
+      </c>
+      <c r="B593">
+        <v>8</v>
+      </c>
+      <c r="C593">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>2021</v>
+      </c>
+      <c r="B594">
+        <v>8</v>
+      </c>
+      <c r="C594">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>2021</v>
+      </c>
+      <c r="B595">
+        <v>8</v>
+      </c>
+      <c r="C595">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>2021</v>
+      </c>
+      <c r="B596">
+        <v>8</v>
+      </c>
+      <c r="C596">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>2021</v>
+      </c>
+      <c r="B597">
+        <v>8</v>
+      </c>
+      <c r="C597">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>2021</v>
+      </c>
+      <c r="B598">
+        <v>8</v>
+      </c>
+      <c r="C598">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>2021</v>
+      </c>
+      <c r="B599">
+        <v>8</v>
+      </c>
+      <c r="C599">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>2021</v>
+      </c>
+      <c r="B600">
+        <v>8</v>
+      </c>
+      <c r="C600">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>2021</v>
+      </c>
+      <c r="B601">
+        <v>8</v>
+      </c>
+      <c r="C601">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>2021</v>
+      </c>
+      <c r="B602">
+        <v>8</v>
+      </c>
+      <c r="C602">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>2021</v>
+      </c>
+      <c r="B603">
+        <v>8</v>
+      </c>
+      <c r="C603">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>2021</v>
+      </c>
+      <c r="B604">
+        <v>8</v>
+      </c>
+      <c r="C604">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>2021</v>
+      </c>
+      <c r="B605">
+        <v>8</v>
+      </c>
+      <c r="C605">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>2021</v>
+      </c>
+      <c r="B606">
+        <v>8</v>
+      </c>
+      <c r="C606">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>2021</v>
+      </c>
+      <c r="B607">
+        <v>8</v>
+      </c>
+      <c r="C607">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>2021</v>
+      </c>
+      <c r="B608">
+        <v>8</v>
+      </c>
+      <c r="C608">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>2021</v>
+      </c>
+      <c r="B609">
+        <v>8</v>
+      </c>
+      <c r="C609">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>2021</v>
+      </c>
+      <c r="B610">
+        <v>8</v>
+      </c>
+      <c r="C610">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StepData.xlsx
+++ b/StepData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\CountingSteps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9296AA47-F2A0-4FEC-A7B9-904DB7F76612}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837E2EF7-05E9-4826-B56C-834D45867FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{F3AFDF18-1CE2-4C72-BD6C-2152A31A0244}"/>
   </bookViews>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5CDEC8-326C-496F-8706-81C54FBAE51F}">
   <dimension ref="A1:J610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="D368" sqref="D368:D503"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="E550" sqref="E550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7467,6 +7467,9 @@
       <c r="C504">
         <v>17</v>
       </c>
+      <c r="D504">
+        <v>5273</v>
+      </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505">
@@ -7478,6 +7481,9 @@
       <c r="C505">
         <v>18</v>
       </c>
+      <c r="D505">
+        <v>5600</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506">
@@ -7489,6 +7495,9 @@
       <c r="C506">
         <v>19</v>
       </c>
+      <c r="D506">
+        <v>4389</v>
+      </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507">
@@ -7500,6 +7509,9 @@
       <c r="C507">
         <v>20</v>
       </c>
+      <c r="D507">
+        <v>9523</v>
+      </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508">
@@ -7511,6 +7523,9 @@
       <c r="C508">
         <v>21</v>
       </c>
+      <c r="D508">
+        <v>5823</v>
+      </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509">
@@ -7522,6 +7537,9 @@
       <c r="C509">
         <v>22</v>
       </c>
+      <c r="D509">
+        <v>9265</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510">
@@ -7533,6 +7551,9 @@
       <c r="C510">
         <v>23</v>
       </c>
+      <c r="D510">
+        <v>4823</v>
+      </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511">
@@ -7544,6 +7565,9 @@
       <c r="C511">
         <v>24</v>
       </c>
+      <c r="D511">
+        <v>4973</v>
+      </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512">
@@ -7555,8 +7579,11 @@
       <c r="C512">
         <v>25</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D512">
+        <v>12379</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2021</v>
       </c>
@@ -7566,8 +7593,11 @@
       <c r="C513">
         <v>26</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D513">
+        <v>7161</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>2021</v>
       </c>
@@ -7577,8 +7607,11 @@
       <c r="C514">
         <v>27</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D514">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>2021</v>
       </c>
@@ -7588,8 +7621,11 @@
       <c r="C515">
         <v>28</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D515">
+        <v>15834</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>2021</v>
       </c>
@@ -7599,8 +7635,11 @@
       <c r="C516">
         <v>29</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D516">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2021</v>
       </c>
@@ -7610,8 +7649,11 @@
       <c r="C517">
         <v>30</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D517">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>2021</v>
       </c>
@@ -7621,8 +7663,11 @@
       <c r="C518">
         <v>31</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D518">
+        <v>13026</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>2021</v>
       </c>
@@ -7632,8 +7677,11 @@
       <c r="C519">
         <v>1</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D519">
+        <v>10992</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>2021</v>
       </c>
@@ -7643,8 +7691,11 @@
       <c r="C520">
         <v>2</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D520">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>2021</v>
       </c>
@@ -7654,8 +7705,11 @@
       <c r="C521">
         <v>3</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D521">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>2021</v>
       </c>
@@ -7665,8 +7719,11 @@
       <c r="C522">
         <v>4</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D522">
+        <v>8264</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>2021</v>
       </c>
@@ -7676,8 +7733,11 @@
       <c r="C523">
         <v>5</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D523">
+        <v>15637</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>2021</v>
       </c>
@@ -7687,8 +7747,11 @@
       <c r="C524">
         <v>6</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D524">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>2021</v>
       </c>
@@ -7698,8 +7761,11 @@
       <c r="C525">
         <v>7</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D525">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>2021</v>
       </c>
@@ -7709,8 +7775,11 @@
       <c r="C526">
         <v>8</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D526">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>2021</v>
       </c>
@@ -7720,8 +7789,11 @@
       <c r="C527">
         <v>9</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D527">
+        <v>7402</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>2021</v>
       </c>
@@ -7731,8 +7803,11 @@
       <c r="C528">
         <v>10</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D528">
+        <v>7620</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>2021</v>
       </c>
@@ -7742,8 +7817,11 @@
       <c r="C529">
         <v>11</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D529">
+        <v>9443</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>2021</v>
       </c>
@@ -7753,8 +7831,11 @@
       <c r="C530">
         <v>12</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D530">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>2021</v>
       </c>
@@ -7764,8 +7845,11 @@
       <c r="C531">
         <v>13</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D531">
+        <v>6835</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>2021</v>
       </c>
@@ -7775,8 +7859,11 @@
       <c r="C532">
         <v>14</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D532">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2021</v>
       </c>
@@ -7786,8 +7873,11 @@
       <c r="C533">
         <v>15</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D533">
+        <v>12730</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>2021</v>
       </c>
@@ -7797,8 +7887,11 @@
       <c r="C534">
         <v>16</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D534">
+        <v>7877</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>2021</v>
       </c>
@@ -7808,8 +7901,11 @@
       <c r="C535">
         <v>17</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D535">
+        <v>10331</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>2021</v>
       </c>
@@ -7819,8 +7915,11 @@
       <c r="C536">
         <v>18</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D536">
+        <v>8212</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>2021</v>
       </c>
@@ -7830,8 +7929,11 @@
       <c r="C537">
         <v>19</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D537">
+        <v>10915</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>2021</v>
       </c>
@@ -7841,8 +7943,11 @@
       <c r="C538">
         <v>20</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D538">
+        <v>6852</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>2021</v>
       </c>
@@ -7852,8 +7957,11 @@
       <c r="C539">
         <v>21</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D539">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>2021</v>
       </c>
@@ -7863,8 +7971,11 @@
       <c r="C540">
         <v>22</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D540">
+        <v>12328</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2021</v>
       </c>
@@ -7874,8 +7985,11 @@
       <c r="C541">
         <v>23</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D541">
+        <v>10544</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>2021</v>
       </c>
@@ -7885,8 +7999,11 @@
       <c r="C542">
         <v>24</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D542">
+        <v>9250</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2021</v>
       </c>
@@ -7896,8 +8013,11 @@
       <c r="C543">
         <v>25</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D543">
+        <v>8511</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2021</v>
       </c>
@@ -7907,8 +8027,11 @@
       <c r="C544">
         <v>26</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D544">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>2021</v>
       </c>
@@ -7918,8 +8041,11 @@
       <c r="C545">
         <v>27</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D545">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>2021</v>
       </c>
@@ -7929,8 +8055,11 @@
       <c r="C546">
         <v>28</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D546">
+        <v>7011</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>2021</v>
       </c>
@@ -7940,8 +8069,11 @@
       <c r="C547">
         <v>29</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D547">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>2021</v>
       </c>
@@ -7951,8 +8083,11 @@
       <c r="C548">
         <v>30</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D548">
+        <v>7809</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>2021</v>
       </c>
@@ -7962,8 +8097,11 @@
       <c r="C549">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D549">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>2021</v>
       </c>
@@ -7973,8 +8111,11 @@
       <c r="C550">
         <v>2</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D550">
+        <v>9911</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>2021</v>
       </c>
@@ -7984,8 +8125,11 @@
       <c r="C551">
         <v>3</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D551">
+        <v>10770</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>2021</v>
       </c>
@@ -7995,8 +8139,11 @@
       <c r="C552">
         <v>4</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D552">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>2021</v>
       </c>
@@ -8006,8 +8153,11 @@
       <c r="C553">
         <v>5</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D553">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>2021</v>
       </c>
@@ -8017,8 +8167,11 @@
       <c r="C554">
         <v>6</v>
       </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D554">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>2021</v>
       </c>
@@ -8028,8 +8181,11 @@
       <c r="C555">
         <v>7</v>
       </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D555">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>2021</v>
       </c>
@@ -8039,8 +8195,11 @@
       <c r="C556">
         <v>8</v>
       </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D556">
+        <v>9506</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>2021</v>
       </c>
@@ -8050,8 +8209,11 @@
       <c r="C557">
         <v>9</v>
       </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D557">
+        <v>10732</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>2021</v>
       </c>
@@ -8061,8 +8223,11 @@
       <c r="C558">
         <v>10</v>
       </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D558">
+        <v>9133</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>2021</v>
       </c>
@@ -8072,8 +8237,11 @@
       <c r="C559">
         <v>11</v>
       </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D559">
+        <v>9638</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>2021</v>
       </c>
@@ -8083,8 +8251,11 @@
       <c r="C560">
         <v>12</v>
       </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D560">
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>2021</v>
       </c>
@@ -8094,8 +8265,11 @@
       <c r="C561">
         <v>13</v>
       </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D561">
+        <v>4975</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>2021</v>
       </c>
@@ -8105,8 +8279,11 @@
       <c r="C562">
         <v>14</v>
       </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D562">
+        <v>12507</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>2021</v>
       </c>
@@ -8116,8 +8293,11 @@
       <c r="C563">
         <v>15</v>
       </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D563">
+        <v>10452</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>2021</v>
       </c>
@@ -8127,8 +8307,11 @@
       <c r="C564">
         <v>16</v>
       </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D564">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>2021</v>
       </c>
@@ -8138,8 +8321,11 @@
       <c r="C565">
         <v>17</v>
       </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D565">
+        <v>13642</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>2021</v>
       </c>
@@ -8149,8 +8335,11 @@
       <c r="C566">
         <v>18</v>
       </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D566">
+        <v>27790</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>2021</v>
       </c>
@@ -8161,7 +8350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>2021</v>
       </c>
@@ -8172,7 +8361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>2021</v>
       </c>
@@ -8183,7 +8372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>2021</v>
       </c>
@@ -8194,7 +8383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>2021</v>
       </c>
@@ -8205,7 +8394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>2021</v>
       </c>
@@ -8216,7 +8405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>2021</v>
       </c>
@@ -8227,7 +8416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>2021</v>
       </c>
@@ -8238,7 +8427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>2021</v>
       </c>
@@ -8249,7 +8438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>2021</v>
       </c>
